--- a/2LabsToGo-Eco-Hardware/Material-Lists/Bill of Material.xlsx
+++ b/2LabsToGo-Eco-Hardware/Material-Lists/Bill of Material.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_2025\7 Cande Autosampler\Cost comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wschwack\GitHub\2LabsToGo-Eco\2LabsToGo-Eco-Hardware\Material-Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="publication" sheetId="1" r:id="rId1"/>
@@ -1388,9 +1388,6 @@
     <t>6) If the mini-shaker is to be operated as a stand-alone device, a separate power supply is needed.</t>
   </si>
   <si>
-    <t>7) Minimum order quantity of 50 per unit, single order available at food-science@ernaehrung.uni-giessen.de</t>
-  </si>
-  <si>
     <r>
       <t>Mechanics</t>
     </r>
@@ -1669,6 +1666,9 @@
   </si>
   <si>
     <t>www.digikey.de/en/products/detail/inolux/IN-C33CTNU2/9681217</t>
+  </si>
+  <si>
+    <t>7) Minimum order quantity of 50 per unit</t>
   </si>
 </sst>
 </file>
@@ -2318,6 +2318,7 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2330,7 +2331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2710,8 +2710,8 @@
   </sheetPr>
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2725,7 +2725,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -2750,13 +2750,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B4" s="87"/>
       <c r="C4" s="89"/>
@@ -3140,7 +3140,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B30" s="91">
         <v>1</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B39" s="91">
         <v>2</v>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B44" s="91"/>
       <c r="C44" s="92"/>
@@ -4195,7 +4195,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="88" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B103" s="91"/>
       <c r="C103" s="90"/>
@@ -4309,7 +4309,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="92" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B111" s="97">
         <v>1</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="121" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B121" s="91">
         <v>2</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B122" s="91">
         <v>2</v>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="E124" s="80"/>
       <c r="F124" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -4531,8 +4531,8 @@
         <v>15.04</v>
       </c>
       <c r="E125" s="80"/>
-      <c r="F125" s="130" t="s">
-        <v>456</v>
+      <c r="F125" s="126" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -4600,7 +4600,7 @@
         <v>1</v>
       </c>
       <c r="C130" s="90" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D130" s="100">
         <v>672.27</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B131" s="99">
         <v>4</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="132" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B132" s="99">
         <v>1</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="133" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B133" s="99">
         <v>1</v>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="134" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B134" s="99">
         <v>1</v>
@@ -4670,7 +4670,7 @@
     </row>
     <row r="135" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B135" s="99">
         <v>1</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="136" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B136" s="99">
         <v>1</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="140" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B140" s="99">
         <v>1</v>
@@ -4761,7 +4761,7 @@
     </row>
     <row r="141" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B141" s="99">
         <v>1</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B145" s="99">
         <v>1</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="152" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B152" s="97">
         <v>1</v>
@@ -5016,7 +5016,7 @@
     </row>
     <row r="159" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="98" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B159" s="99">
         <v>1</v>
@@ -5360,7 +5360,7 @@
         <v>50</v>
       </c>
       <c r="C183" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D183" s="110">
         <v>130</v>
@@ -5375,7 +5375,7 @@
         <v>50</v>
       </c>
       <c r="C184" s="92" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D184" s="110">
         <v>130</v>
@@ -5410,7 +5410,7 @@
       <c r="A187" s="92"/>
       <c r="B187" s="97"/>
       <c r="C187" s="124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D187" s="125">
         <f>D186+D180+D169+D147</f>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="88" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B188" s="92"/>
       <c r="C188" s="92"/>
@@ -5550,13 +5550,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B198" s="97">
         <v>2</v>
       </c>
       <c r="C198" s="92" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D198" s="110">
         <v>0.98</v>
@@ -5589,21 +5589,21 @@
       <c r="E201" s="80"/>
     </row>
     <row r="202" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="126" t="s">
+      <c r="A202" s="127" t="s">
+        <v>453</v>
+      </c>
+      <c r="B202" s="127"/>
+      <c r="C202" s="127"/>
+      <c r="D202" s="127"/>
+      <c r="E202" s="80"/>
+    </row>
+    <row r="203" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="127" t="s">
         <v>454</v>
       </c>
-      <c r="B202" s="126"/>
-      <c r="C202" s="126"/>
-      <c r="D202" s="126"/>
-      <c r="E202" s="80"/>
-    </row>
-    <row r="203" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="126" t="s">
-        <v>455</v>
-      </c>
-      <c r="B203" s="126"/>
-      <c r="C203" s="126"/>
-      <c r="D203" s="126"/>
+      <c r="B203" s="127"/>
+      <c r="C203" s="127"/>
+      <c r="D203" s="127"/>
       <c r="E203" s="80"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -5641,7 +5641,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="92" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="B207" s="92"/>
       <c r="C207" s="92"/>
@@ -7320,7 +7320,7 @@
       <c r="D114" s="13">
         <v>130</v>
       </c>
-      <c r="E114" s="127" t="s">
+      <c r="E114" s="128" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7337,7 +7337,7 @@
       <c r="D115" s="13">
         <v>130</v>
       </c>
-      <c r="E115" s="127"/>
+      <c r="E115" s="128"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -10188,7 +10188,7 @@
       <c r="D143" s="54">
         <v>5.2</v>
       </c>
-      <c r="E143" s="128" t="s">
+      <c r="E143" s="129" t="s">
         <v>233</v>
       </c>
     </row>
@@ -10205,7 +10205,7 @@
       <c r="D144" s="54">
         <v>5.2</v>
       </c>
-      <c r="E144" s="129"/>
+      <c r="E144" s="130"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="43" t="s">

--- a/2LabsToGo-Eco-Hardware/Material-Lists/Bill of Material.xlsx
+++ b/2LabsToGo-Eco-Hardware/Material-Lists/Bill of Material.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="462">
   <si>
     <t>Parts</t>
   </si>
@@ -1580,21 +1580,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">piezoelements.com </t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>7)</t>
-    </r>
-  </si>
-  <si>
     <t>Instuction S2 - Bill of materials</t>
   </si>
   <si>
@@ -1662,13 +1647,73 @@
     <t>4) Eagle files and partlist are freely available at https//:github.com/OfficeChromatography/2LabsToGo-Eco-Hardware.The fully equipped and tested board can also be ordered from the Electronics Workshop (Dept. of Physics, Justus Liebig University Giessen, Heinrich-Buff-Ring 20, 35392 Gießen, Germany) by email to thomas.nimmerfroh@exp1.physik.uni-giessen.de.</t>
   </si>
   <si>
-    <t>www.digikey.de/en/products/detail/inspired-led-llc/12V-MB-CW-12M/5866487</t>
-  </si>
-  <si>
-    <t>www.digikey.de/en/products/detail/inolux/IN-C33CTNU2/9681217</t>
-  </si>
-  <si>
-    <t>7) Minimum order quantity of 50 per unit</t>
+    <t>7) Minimum order quantity of 50 per unit, custom-made products, 20 cm cables</t>
+  </si>
+  <si>
+    <t>ONPIRA Power distributor, 8 A, 2 x 6 positions (Amazon ASIN B077BQW5Q5)</t>
+  </si>
+  <si>
+    <t>pack of 10, but need a cable extension of about 15 cm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">piezoelements.com </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7,8)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ultrasonic Piezo Atomizer 16 mm 108 kHz </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 µm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> pore size also are avaibale at Amazon (ASIN B0DFGH691W),</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">piezoelements.com </t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>7,8,9)</t>
+    </r>
+  </si>
+  <si>
+    <t>9) Ultrasonic Piezo Atomizer 11 µm pore size are needed to spray suspensions of yeast cells</t>
+  </si>
+  <si>
+    <t>8) Ask piezoelements, if the atomizers are available as 'conventional products', to order a lower amount.</t>
   </si>
 </sst>
 </file>
@@ -2019,7 +2064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2319,6 +2364,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2708,38 +2756,38 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A211" sqref="A211"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.42578125" style="78" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="78" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="78" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="78" customWidth="1"/>
-    <col min="5" max="16384" width="11.5703125" style="78"/>
+    <col min="1" max="1" width="96.44140625" style="78" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="78" customWidth="1"/>
+    <col min="5" max="16384" width="11.5546875" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
       <c r="E1" s="80"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
       <c r="E2" s="80"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
@@ -2750,11 +2798,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E3" s="80"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
         <v>426</v>
       </c>
@@ -2763,7 +2811,7 @@
       <c r="D4" s="89"/>
       <c r="E4" s="80"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="90" t="s">
         <v>266</v>
       </c>
@@ -2778,7 +2826,7 @@
       </c>
       <c r="E5" s="80"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="90" t="s">
         <v>267</v>
       </c>
@@ -2793,7 +2841,7 @@
       </c>
       <c r="E6" s="80"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="90" t="s">
         <v>268</v>
       </c>
@@ -2808,7 +2856,7 @@
       </c>
       <c r="E7" s="80"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="90" t="s">
         <v>269</v>
       </c>
@@ -2823,7 +2871,7 @@
       </c>
       <c r="E8" s="80"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>270</v>
       </c>
@@ -2838,7 +2886,7 @@
       </c>
       <c r="E9" s="80"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="90" t="s">
         <v>271</v>
       </c>
@@ -2853,7 +2901,7 @@
       </c>
       <c r="E10" s="80"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="90" t="s">
         <v>272</v>
       </c>
@@ -2868,7 +2916,7 @@
       </c>
       <c r="E11" s="80"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="90" t="s">
         <v>273</v>
       </c>
@@ -2883,7 +2931,7 @@
       </c>
       <c r="E12" s="80"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="90" t="s">
         <v>394</v>
       </c>
@@ -2898,7 +2946,7 @@
       </c>
       <c r="E13" s="80"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="90" t="s">
         <v>371</v>
       </c>
@@ -2913,7 +2961,7 @@
       </c>
       <c r="E14" s="80"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="90" t="s">
         <v>275</v>
       </c>
@@ -2928,7 +2976,7 @@
       </c>
       <c r="E15" s="80"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="90" t="s">
         <v>276</v>
       </c>
@@ -2943,7 +2991,7 @@
       </c>
       <c r="E16" s="80"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="90" t="s">
         <v>378</v>
       </c>
@@ -2958,7 +3006,7 @@
       </c>
       <c r="E17" s="80"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="90" t="s">
         <v>278</v>
       </c>
@@ -2973,7 +3021,7 @@
       </c>
       <c r="E18" s="80"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="90" t="s">
         <v>406</v>
       </c>
@@ -2988,7 +3036,7 @@
       </c>
       <c r="E19" s="80"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="90" t="s">
         <v>379</v>
       </c>
@@ -3003,7 +3051,7 @@
       </c>
       <c r="E20" s="80"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="90" t="s">
         <v>380</v>
       </c>
@@ -3018,7 +3066,7 @@
       </c>
       <c r="E21" s="80"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="90" t="s">
         <v>281</v>
       </c>
@@ -3033,7 +3081,7 @@
       </c>
       <c r="E22" s="80"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="90" t="s">
         <v>282</v>
       </c>
@@ -3048,7 +3096,7 @@
       </c>
       <c r="E23" s="80"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="90" t="s">
         <v>283</v>
       </c>
@@ -3063,7 +3111,7 @@
       </c>
       <c r="E24" s="80"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="90" t="s">
         <v>373</v>
       </c>
@@ -3078,7 +3126,7 @@
       </c>
       <c r="E25" s="80"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="90" t="s">
         <v>284</v>
       </c>
@@ -3093,7 +3141,7 @@
       </c>
       <c r="E26" s="80"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="90" t="s">
         <v>285</v>
       </c>
@@ -3108,7 +3156,7 @@
       </c>
       <c r="E27" s="80"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="90" t="s">
         <v>375</v>
       </c>
@@ -3123,7 +3171,7 @@
       </c>
       <c r="E28" s="80"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="90" t="s">
         <v>374</v>
       </c>
@@ -3138,9 +3186,9 @@
       </c>
       <c r="E29" s="80"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B30" s="91">
         <v>1</v>
@@ -3153,7 +3201,7 @@
       </c>
       <c r="E30" s="80"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="90" t="s">
         <v>286</v>
       </c>
@@ -3168,7 +3216,7 @@
       </c>
       <c r="E31" s="80"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="90" t="s">
         <v>372</v>
       </c>
@@ -3183,7 +3231,7 @@
       </c>
       <c r="E32" s="80"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="90" t="s">
         <v>287</v>
       </c>
@@ -3198,7 +3246,7 @@
       </c>
       <c r="E33" s="80"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="90" t="s">
         <v>381</v>
       </c>
@@ -3213,7 +3261,7 @@
       </c>
       <c r="E34" s="80"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="90" t="s">
         <v>288</v>
       </c>
@@ -3228,7 +3276,7 @@
       </c>
       <c r="E35" s="80"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="90" t="s">
         <v>289</v>
       </c>
@@ -3243,7 +3291,7 @@
       </c>
       <c r="E36" s="80"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="90" t="s">
         <v>290</v>
       </c>
@@ -3258,7 +3306,7 @@
       </c>
       <c r="E37" s="80"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="90" t="s">
         <v>291</v>
       </c>
@@ -3273,9 +3321,9 @@
       </c>
       <c r="E38" s="80"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B39" s="91">
         <v>2</v>
@@ -3288,7 +3336,7 @@
       </c>
       <c r="E39" s="80"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
         <v>292</v>
       </c>
@@ -3303,7 +3351,7 @@
       </c>
       <c r="E40" s="80"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
         <v>293</v>
       </c>
@@ -3318,7 +3366,7 @@
       </c>
       <c r="E41" s="80"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="90" t="s">
         <v>294</v>
       </c>
@@ -3333,7 +3381,7 @@
       </c>
       <c r="E42" s="80"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="90" t="s">
         <v>295</v>
       </c>
@@ -3348,7 +3396,7 @@
       </c>
       <c r="E43" s="80"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="88" t="s">
         <v>427</v>
       </c>
@@ -3357,7 +3405,7 @@
       <c r="D44" s="93"/>
       <c r="E44" s="80"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="94" t="s">
         <v>318</v>
       </c>
@@ -3372,7 +3420,7 @@
       </c>
       <c r="E45" s="80"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="92" t="s">
         <v>377</v>
       </c>
@@ -3387,7 +3435,7 @@
       </c>
       <c r="E46" s="80"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="98" t="s">
         <v>418</v>
       </c>
@@ -3402,7 +3450,7 @@
       </c>
       <c r="E47" s="80"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="92" t="s">
         <v>224</v>
       </c>
@@ -3417,7 +3465,7 @@
       </c>
       <c r="E48" s="80"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="88" t="s">
         <v>101</v>
       </c>
@@ -3426,7 +3474,7 @@
       <c r="D49" s="103"/>
       <c r="E49" s="80"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="90" t="s">
         <v>17</v>
       </c>
@@ -3442,7 +3490,7 @@
       </c>
       <c r="E50" s="80"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="90" t="s">
         <v>18</v>
       </c>
@@ -3458,7 +3506,7 @@
       </c>
       <c r="E51" s="80"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="90" t="s">
         <v>20</v>
       </c>
@@ -3473,7 +3521,7 @@
       </c>
       <c r="E52" s="80"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="90" t="s">
         <v>64</v>
       </c>
@@ -3489,7 +3537,7 @@
       <c r="E53" s="80"/>
       <c r="I53" s="79"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="90" t="s">
         <v>211</v>
       </c>
@@ -3504,7 +3552,7 @@
       </c>
       <c r="E54" s="80"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="90" t="s">
         <v>23</v>
       </c>
@@ -3520,7 +3568,7 @@
       </c>
       <c r="E55" s="80"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="90" t="s">
         <v>5</v>
       </c>
@@ -3535,7 +3583,7 @@
       </c>
       <c r="E56" s="80"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="90" t="s">
         <v>388</v>
       </c>
@@ -3550,7 +3598,7 @@
       </c>
       <c r="E57" s="80"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="90" t="s">
         <v>389</v>
       </c>
@@ -3565,7 +3613,7 @@
       </c>
       <c r="E58" s="80"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="92" t="s">
         <v>129</v>
       </c>
@@ -3580,7 +3628,7 @@
       </c>
       <c r="E59" s="80"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="92" t="s">
         <v>140</v>
       </c>
@@ -3595,7 +3643,7 @@
       </c>
       <c r="E60" s="80"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="92" t="s">
         <v>395</v>
       </c>
@@ -3610,7 +3658,7 @@
       </c>
       <c r="E61" s="80"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="88" t="s">
         <v>28</v>
       </c>
@@ -3619,7 +3667,7 @@
       <c r="D62" s="93"/>
       <c r="E62" s="80"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="90" t="s">
         <v>391</v>
       </c>
@@ -3634,7 +3682,7 @@
       </c>
       <c r="E63" s="80"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="90" t="s">
         <v>102</v>
       </c>
@@ -3650,7 +3698,7 @@
       </c>
       <c r="E64" s="80"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="90" t="s">
         <v>53</v>
       </c>
@@ -3665,7 +3713,7 @@
       </c>
       <c r="E65" s="80"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="90" t="s">
         <v>104</v>
       </c>
@@ -3680,7 +3728,7 @@
       </c>
       <c r="E66" s="80"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="92" t="s">
         <v>171</v>
       </c>
@@ -3695,7 +3743,7 @@
       </c>
       <c r="E67" s="80"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="88" t="s">
         <v>27</v>
       </c>
@@ -3704,7 +3752,7 @@
       <c r="D68" s="104"/>
       <c r="E68" s="80"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="90" t="s">
         <v>118</v>
       </c>
@@ -3720,7 +3768,7 @@
       </c>
       <c r="E69" s="80"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="90" t="s">
         <v>384</v>
       </c>
@@ -3735,7 +3783,7 @@
       </c>
       <c r="E70" s="80"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="90" t="s">
         <v>385</v>
       </c>
@@ -3750,7 +3798,7 @@
       </c>
       <c r="E71" s="80"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="88" t="s">
         <v>7</v>
       </c>
@@ -3759,7 +3807,7 @@
       <c r="D72" s="93"/>
       <c r="E72" s="80"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="90" t="s">
         <v>174</v>
       </c>
@@ -3774,7 +3822,7 @@
       </c>
       <c r="E73" s="80"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="90" t="s">
         <v>175</v>
       </c>
@@ -3789,7 +3837,7 @@
       </c>
       <c r="E74" s="80"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="90" t="s">
         <v>176</v>
       </c>
@@ -3804,7 +3852,7 @@
       </c>
       <c r="E75" s="80"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="90" t="s">
         <v>177</v>
       </c>
@@ -3819,7 +3867,7 @@
       </c>
       <c r="E76" s="80"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="90" t="s">
         <v>386</v>
       </c>
@@ -3834,7 +3882,7 @@
       </c>
       <c r="E77" s="80"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="90" t="s">
         <v>387</v>
       </c>
@@ -3849,7 +3897,7 @@
       </c>
       <c r="E78" s="81"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="88" t="s">
         <v>42</v>
       </c>
@@ -3858,7 +3906,7 @@
       <c r="D79" s="93"/>
       <c r="E79" s="80"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="90" t="s">
         <v>367</v>
       </c>
@@ -3874,7 +3922,7 @@
       </c>
       <c r="E80" s="80"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="90" t="s">
         <v>86</v>
       </c>
@@ -3889,7 +3937,7 @@
       </c>
       <c r="E81" s="80"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="90" t="s">
         <v>316</v>
       </c>
@@ -3904,7 +3952,7 @@
       </c>
       <c r="E82" s="80"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="90" t="s">
         <v>11</v>
       </c>
@@ -3919,7 +3967,7 @@
       </c>
       <c r="E83" s="80"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="90" t="s">
         <v>242</v>
       </c>
@@ -3934,7 +3982,7 @@
       </c>
       <c r="E84" s="80"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="90" t="s">
         <v>300</v>
       </c>
@@ -3949,7 +3997,7 @@
       </c>
       <c r="E85" s="80"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="90" t="s">
         <v>407</v>
       </c>
@@ -3962,7 +4010,7 @@
       <c r="D86" s="97"/>
       <c r="E86" s="81"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="90" t="s">
         <v>87</v>
       </c>
@@ -3978,7 +4026,7 @@
       </c>
       <c r="E87" s="80"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="94" t="s">
         <v>243</v>
       </c>
@@ -3994,7 +4042,7 @@
       </c>
       <c r="E88" s="80"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="94" t="s">
         <v>362</v>
       </c>
@@ -4010,7 +4058,7 @@
       </c>
       <c r="E89" s="80"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="94" t="s">
         <v>220</v>
       </c>
@@ -4025,7 +4073,7 @@
       </c>
       <c r="E90" s="82"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="88" t="s">
         <v>89</v>
       </c>
@@ -4034,7 +4082,7 @@
       <c r="D91" s="105"/>
       <c r="E91" s="80"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="90" t="s">
         <v>315</v>
       </c>
@@ -4049,7 +4097,7 @@
       </c>
       <c r="E92" s="80"/>
     </row>
-    <row r="93" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A93" s="90" t="s">
         <v>229</v>
       </c>
@@ -4064,7 +4112,7 @@
       </c>
       <c r="E93" s="80"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="88" t="s">
         <v>90</v>
       </c>
@@ -4073,7 +4121,7 @@
       <c r="D94" s="93"/>
       <c r="E94" s="80"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="90" t="s">
         <v>91</v>
       </c>
@@ -4088,7 +4136,7 @@
       </c>
       <c r="E95" s="82"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="90" t="s">
         <v>92</v>
       </c>
@@ -4103,7 +4151,7 @@
       </c>
       <c r="E96" s="80"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="90" t="s">
         <v>94</v>
       </c>
@@ -4118,7 +4166,7 @@
       </c>
       <c r="E97" s="80"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="90" t="s">
         <v>93</v>
       </c>
@@ -4133,7 +4181,7 @@
       </c>
       <c r="E98" s="80"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="90" t="s">
         <v>357</v>
       </c>
@@ -4148,7 +4196,7 @@
       </c>
       <c r="E99" s="80"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="90" t="s">
         <v>359</v>
       </c>
@@ -4163,7 +4211,7 @@
       </c>
       <c r="E100" s="80"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="90" t="s">
         <v>358</v>
       </c>
@@ -4178,7 +4226,7 @@
       </c>
       <c r="E101" s="80"/>
     </row>
-    <row r="102" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="98" t="s">
         <v>191</v>
       </c>
@@ -4193,16 +4241,16 @@
       </c>
       <c r="E102" s="80"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="88" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B103" s="91"/>
       <c r="C103" s="90"/>
       <c r="D103" s="96"/>
       <c r="E103" s="80"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="94" t="s">
         <v>13</v>
       </c>
@@ -4217,7 +4265,7 @@
       </c>
       <c r="E104" s="80"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="92" t="s">
         <v>72</v>
       </c>
@@ -4232,7 +4280,7 @@
       </c>
       <c r="E105" s="80"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="92" t="s">
         <v>73</v>
       </c>
@@ -4247,7 +4295,7 @@
       </c>
       <c r="E106" s="80"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="92" t="s">
         <v>74</v>
       </c>
@@ -4262,7 +4310,7 @@
       </c>
       <c r="E107" s="80"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="92" t="s">
         <v>75</v>
       </c>
@@ -4277,7 +4325,7 @@
       </c>
       <c r="E108" s="80"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="92" t="s">
         <v>76</v>
       </c>
@@ -4292,7 +4340,7 @@
       </c>
       <c r="E109" s="80"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="92" t="s">
         <v>77</v>
       </c>
@@ -4307,9 +4355,9 @@
       </c>
       <c r="E110" s="80"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="92" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B111" s="97">
         <v>1</v>
@@ -4322,7 +4370,7 @@
       </c>
       <c r="E111" s="80"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="92" t="s">
         <v>79</v>
       </c>
@@ -4337,7 +4385,7 @@
       </c>
       <c r="E112" s="80"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="92" t="s">
         <v>80</v>
       </c>
@@ -4352,7 +4400,7 @@
       </c>
       <c r="E113" s="80"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="92" t="s">
         <v>382</v>
       </c>
@@ -4367,7 +4415,7 @@
       </c>
       <c r="E114" s="80"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="92" t="s">
         <v>82</v>
       </c>
@@ -4382,7 +4430,7 @@
       </c>
       <c r="E115" s="80"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="92" t="s">
         <v>83</v>
       </c>
@@ -4397,7 +4445,7 @@
       </c>
       <c r="E116" s="80"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="92" t="s">
         <v>84</v>
       </c>
@@ -4412,7 +4460,7 @@
       </c>
       <c r="E117" s="80"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="92" t="s">
         <v>85</v>
       </c>
@@ -4427,7 +4475,7 @@
       </c>
       <c r="E118" s="83"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="92" t="s">
         <v>192</v>
       </c>
@@ -4442,7 +4490,7 @@
       </c>
       <c r="E119" s="80"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="88" t="s">
         <v>43</v>
       </c>
@@ -4451,9 +4499,9 @@
       <c r="D120" s="97"/>
       <c r="E120" s="80"/>
     </row>
-    <row r="121" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A121" s="98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B121" s="91">
         <v>2</v>
@@ -4466,9 +4514,9 @@
       </c>
       <c r="E121" s="80"/>
     </row>
-    <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A122" s="98" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B122" s="91">
         <v>2</v>
@@ -4481,7 +4529,7 @@
       </c>
       <c r="E122" s="80"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="106" t="s">
         <v>95</v>
       </c>
@@ -4497,7 +4545,7 @@
       </c>
       <c r="E123" s="80"/>
     </row>
-    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A124" s="106" t="s">
         <v>108</v>
       </c>
@@ -4512,11 +4560,9 @@
         <v>25.44</v>
       </c>
       <c r="E124" s="80"/>
-      <c r="F124" s="16" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="F124" s="16"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="98" t="s">
         <v>419</v>
       </c>
@@ -4531,11 +4577,9 @@
         <v>15.04</v>
       </c>
       <c r="E125" s="80"/>
-      <c r="F125" s="126" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="126"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="98" t="s">
         <v>231</v>
       </c>
@@ -4551,7 +4595,7 @@
       </c>
       <c r="E126" s="80"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="98" t="s">
         <v>409</v>
       </c>
@@ -4567,7 +4611,7 @@
       </c>
       <c r="E127" s="80"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="90" t="s">
         <v>420</v>
       </c>
@@ -4583,7 +4627,7 @@
       </c>
       <c r="E128" s="80"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="111" t="s">
         <v>160</v>
       </c>
@@ -4592,7 +4636,7 @@
       <c r="D129" s="100"/>
       <c r="E129" s="80"/>
     </row>
-    <row r="130" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A130" s="98" t="s">
         <v>422</v>
       </c>
@@ -4607,7 +4651,7 @@
       </c>
       <c r="E130" s="80"/>
     </row>
-    <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A131" s="98" t="s">
         <v>429</v>
       </c>
@@ -4623,7 +4667,7 @@
       </c>
       <c r="E131" s="80"/>
     </row>
-    <row r="132" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A132" s="98" t="s">
         <v>430</v>
       </c>
@@ -4638,7 +4682,7 @@
       </c>
       <c r="E132" s="80"/>
     </row>
-    <row r="133" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A133" s="98" t="s">
         <v>431</v>
       </c>
@@ -4653,7 +4697,7 @@
       </c>
       <c r="E133" s="80"/>
     </row>
-    <row r="134" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A134" s="98" t="s">
         <v>432</v>
       </c>
@@ -4668,7 +4712,7 @@
       </c>
       <c r="E134" s="80"/>
     </row>
-    <row r="135" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A135" s="98" t="s">
         <v>433</v>
       </c>
@@ -4683,7 +4727,7 @@
       </c>
       <c r="E135" s="80"/>
     </row>
-    <row r="136" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A136" s="98" t="s">
         <v>434</v>
       </c>
@@ -4698,7 +4742,7 @@
       </c>
       <c r="E136" s="80"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="98" t="s">
         <v>99</v>
       </c>
@@ -4714,7 +4758,7 @@
       </c>
       <c r="E137" s="80"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="98" t="s">
         <v>330</v>
       </c>
@@ -4729,7 +4773,7 @@
       </c>
       <c r="E138" s="80"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="98" t="s">
         <v>421</v>
       </c>
@@ -4744,7 +4788,7 @@
       </c>
       <c r="E139" s="80"/>
     </row>
-    <row r="140" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A140" s="98" t="s">
         <v>435</v>
       </c>
@@ -4759,7 +4803,7 @@
       </c>
       <c r="E140" s="80"/>
     </row>
-    <row r="141" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A141" s="98" t="s">
         <v>436</v>
       </c>
@@ -4774,7 +4818,7 @@
       </c>
       <c r="E141" s="80"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="111" t="s">
         <v>218</v>
       </c>
@@ -4783,7 +4827,7 @@
       <c r="D142" s="97"/>
       <c r="E142" s="80"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="98" t="s">
         <v>49</v>
       </c>
@@ -4798,7 +4842,7 @@
       </c>
       <c r="E143" s="80"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="90" t="s">
         <v>31</v>
       </c>
@@ -4813,9 +4857,9 @@
       </c>
       <c r="E144" s="80"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="90" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B145" s="99">
         <v>1</v>
@@ -4828,7 +4872,7 @@
       </c>
       <c r="E145" s="83"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="98" t="s">
         <v>60</v>
       </c>
@@ -4844,7 +4888,7 @@
       </c>
       <c r="E146" s="83"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="98"/>
       <c r="B147" s="99"/>
       <c r="C147" s="112"/>
@@ -4854,7 +4898,7 @@
       </c>
       <c r="E147" s="83"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="111" t="s">
         <v>34</v>
       </c>
@@ -4863,7 +4907,7 @@
       <c r="D148" s="97"/>
       <c r="E148" s="80"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="98" t="s">
         <v>327</v>
       </c>
@@ -4879,7 +4923,7 @@
       </c>
       <c r="E149" s="80"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="98" t="s">
         <v>334</v>
       </c>
@@ -4894,7 +4938,7 @@
       </c>
       <c r="E150" s="80"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="98" t="s">
         <v>399</v>
       </c>
@@ -4909,7 +4953,7 @@
       </c>
       <c r="E151" s="80"/>
     </row>
-    <row r="152" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A152" s="98" t="s">
         <v>437</v>
       </c>
@@ -4924,7 +4968,7 @@
       </c>
       <c r="E152" s="80"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="98" t="s">
         <v>323</v>
       </c>
@@ -4939,7 +4983,7 @@
       </c>
       <c r="E153" s="80"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="98" t="s">
         <v>324</v>
       </c>
@@ -4954,7 +4998,7 @@
       </c>
       <c r="E154" s="80"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="98" t="s">
         <v>336</v>
       </c>
@@ -4969,7 +5013,7 @@
       </c>
       <c r="E155" s="80"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="98" t="s">
         <v>325</v>
       </c>
@@ -4984,7 +5028,7 @@
       </c>
       <c r="E156" s="80"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="98" t="s">
         <v>332</v>
       </c>
@@ -4999,7 +5043,7 @@
       </c>
       <c r="E157" s="80"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="98" t="s">
         <v>333</v>
       </c>
@@ -5014,7 +5058,7 @@
       </c>
       <c r="E158" s="80"/>
     </row>
-    <row r="159" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A159" s="98" t="s">
         <v>438</v>
       </c>
@@ -5029,7 +5073,7 @@
       </c>
       <c r="E159" s="80"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="98" t="s">
         <v>354</v>
       </c>
@@ -5045,7 +5089,7 @@
       </c>
       <c r="E160" s="80"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="114" t="s">
         <v>319</v>
       </c>
@@ -5054,7 +5098,7 @@
       <c r="D161" s="110"/>
       <c r="E161" s="80"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="115" t="s">
         <v>392</v>
       </c>
@@ -5070,7 +5114,7 @@
       </c>
       <c r="E162" s="80"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="98" t="s">
         <v>320</v>
       </c>
@@ -5086,9 +5130,9 @@
       </c>
       <c r="E163" s="80"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="98" t="s">
-        <v>329</v>
+        <v>455</v>
       </c>
       <c r="B164" s="97">
         <v>1</v>
@@ -5102,7 +5146,7 @@
       </c>
       <c r="E164" s="80"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="98" t="s">
         <v>405</v>
       </c>
@@ -5118,7 +5162,7 @@
       </c>
       <c r="E165" s="80"/>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="98" t="s">
         <v>330</v>
       </c>
@@ -5133,7 +5177,7 @@
       </c>
       <c r="E166" s="80"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="98" t="s">
         <v>338</v>
       </c>
@@ -5148,7 +5192,7 @@
       </c>
       <c r="E167" s="80"/>
     </row>
-    <row r="168" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A168" s="98" t="s">
         <v>339</v>
       </c>
@@ -5163,7 +5207,7 @@
       </c>
       <c r="E168" s="80"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="98"/>
       <c r="B169" s="92"/>
       <c r="C169" s="92"/>
@@ -5173,7 +5217,7 @@
       </c>
       <c r="E169" s="80"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="111" t="s">
         <v>24</v>
       </c>
@@ -5182,7 +5226,7 @@
       <c r="D170" s="97"/>
       <c r="E170" s="80"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="98" t="s">
         <v>393</v>
       </c>
@@ -5198,7 +5242,7 @@
       </c>
       <c r="E171" s="80"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="98" t="s">
         <v>392</v>
       </c>
@@ -5214,7 +5258,7 @@
       </c>
       <c r="E172" s="80"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="98" t="s">
         <v>411</v>
       </c>
@@ -5229,7 +5273,7 @@
       </c>
       <c r="E173" s="80"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="98" t="s">
         <v>99</v>
       </c>
@@ -5245,7 +5289,7 @@
       </c>
       <c r="E174" s="80"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="92" t="s">
         <v>412</v>
       </c>
@@ -5260,7 +5304,7 @@
       </c>
       <c r="E175" s="80"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="98" t="s">
         <v>413</v>
       </c>
@@ -5275,7 +5319,7 @@
       </c>
       <c r="E176" s="80"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="98" t="s">
         <v>414</v>
       </c>
@@ -5290,7 +5334,7 @@
       </c>
       <c r="E177" s="80"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="98" t="s">
         <v>415</v>
       </c>
@@ -5305,7 +5349,7 @@
       </c>
       <c r="E178" s="80"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="117" t="s">
         <v>423</v>
       </c>
@@ -5320,7 +5364,7 @@
       </c>
       <c r="E179" s="80"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="92"/>
       <c r="B180" s="91"/>
       <c r="C180" s="90"/>
@@ -5330,7 +5374,7 @@
       </c>
       <c r="E180" s="80"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="119" t="s">
         <v>25</v>
       </c>
@@ -5339,7 +5383,7 @@
       <c r="D181" s="97"/>
       <c r="E181" s="80"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="92" t="s">
         <v>347</v>
       </c>
@@ -5352,7 +5396,7 @@
       <c r="D182" s="110"/>
       <c r="E182" s="80"/>
     </row>
-    <row r="183" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A183" s="92" t="s">
         <v>201</v>
       </c>
@@ -5360,14 +5404,14 @@
         <v>50</v>
       </c>
       <c r="C183" s="92" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="D183" s="110">
         <v>130</v>
       </c>
       <c r="E183" s="80"/>
     </row>
-    <row r="184" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A184" s="92" t="s">
         <v>202</v>
       </c>
@@ -5375,14 +5419,14 @@
         <v>50</v>
       </c>
       <c r="C184" s="92" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="D184" s="110">
         <v>130</v>
       </c>
       <c r="E184" s="80"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="92" t="s">
         <v>416</v>
       </c>
@@ -5397,7 +5441,7 @@
       </c>
       <c r="E185" s="80"/>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="92"/>
       <c r="B186" s="97"/>
       <c r="C186" s="92"/>
@@ -5406,11 +5450,11 @@
         <v>260.69</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A187" s="92"/>
       <c r="B187" s="97"/>
       <c r="C187" s="124" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D187" s="125">
         <f>D186+D180+D169+D147</f>
@@ -5418,16 +5462,16 @@
       </c>
       <c r="E187" s="84"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="88" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B188" s="92"/>
       <c r="C188" s="92"/>
       <c r="D188" s="97"/>
       <c r="E188" s="80"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="92" t="s">
         <v>353</v>
       </c>
@@ -5442,14 +5486,14 @@
       </c>
       <c r="E189" s="80"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="92"/>
       <c r="B190" s="97"/>
       <c r="C190" s="98"/>
       <c r="D190" s="120"/>
       <c r="E190" s="80"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="111" t="s">
         <v>29</v>
       </c>
@@ -5458,7 +5502,7 @@
       <c r="D191" s="97"/>
       <c r="E191" s="80"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="90" t="s">
         <v>396</v>
       </c>
@@ -5473,7 +5517,7 @@
       </c>
       <c r="E192" s="85"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="90" t="s">
         <v>397</v>
       </c>
@@ -5488,7 +5532,7 @@
       </c>
       <c r="E193" s="85"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="90" t="s">
         <v>398</v>
       </c>
@@ -5503,7 +5547,7 @@
       </c>
       <c r="E194" s="80"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="98" t="s">
         <v>114</v>
       </c>
@@ -5518,7 +5562,7 @@
       </c>
       <c r="E195" s="80"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="90" t="s">
         <v>417</v>
       </c>
@@ -5533,7 +5577,7 @@
       </c>
       <c r="E196" s="80"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="98" t="s">
         <v>121</v>
       </c>
@@ -5548,29 +5592,29 @@
       </c>
       <c r="E197" s="80"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="98" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B198" s="97">
         <v>2</v>
       </c>
       <c r="C198" s="92" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D198" s="110">
         <v>0.98</v>
       </c>
       <c r="E198" s="80"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="92"/>
       <c r="B199" s="92"/>
       <c r="C199" s="92"/>
       <c r="D199" s="92"/>
       <c r="E199" s="80"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="92" t="s">
         <v>410</v>
       </c>
@@ -5579,7 +5623,7 @@
       <c r="D200" s="92"/>
       <c r="E200" s="80"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="92" t="s">
         <v>230</v>
       </c>
@@ -5588,25 +5632,25 @@
       <c r="D201" s="92"/>
       <c r="E201" s="80"/>
     </row>
-    <row r="202" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="127" t="s">
+    <row r="202" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="128" t="s">
+        <v>452</v>
+      </c>
+      <c r="B202" s="128"/>
+      <c r="C202" s="128"/>
+      <c r="D202" s="128"/>
+      <c r="E202" s="80"/>
+    </row>
+    <row r="203" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="128" t="s">
         <v>453</v>
       </c>
-      <c r="B202" s="127"/>
-      <c r="C202" s="127"/>
-      <c r="D202" s="127"/>
-      <c r="E202" s="80"/>
-    </row>
-    <row r="203" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="127" t="s">
-        <v>454</v>
-      </c>
-      <c r="B203" s="127"/>
-      <c r="C203" s="127"/>
-      <c r="D203" s="127"/>
+      <c r="B203" s="128"/>
+      <c r="C203" s="128"/>
+      <c r="D203" s="128"/>
       <c r="E203" s="80"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="121" t="s">
         <v>424</v>
       </c>
@@ -5615,7 +5659,7 @@
       <c r="D204" s="98"/>
       <c r="E204" s="80"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="98" t="s">
         <v>425</v>
       </c>
@@ -5624,7 +5668,7 @@
       <c r="D205" s="122"/>
       <c r="E205" s="80"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="99" t="s">
         <v>368</v>
       </c>
@@ -5639,20 +5683,46 @@
       </c>
       <c r="E206" s="80"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="92" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B207" s="92"/>
       <c r="C207" s="92"/>
       <c r="D207" s="92"/>
       <c r="E207" s="80"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="86"/>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="86" t="s">
+        <v>458</v>
+      </c>
       <c r="B208" s="86"/>
       <c r="C208" s="86"/>
       <c r="D208" s="86"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="78" t="s">
+        <v>456</v>
+      </c>
+      <c r="B209" s="78">
+        <v>1</v>
+      </c>
+      <c r="C209" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="D209" s="127">
+        <v>10.08</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="78" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="78" t="s">
+        <v>460</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5664,10 +5734,9 @@
     <hyperlink ref="C163" r:id="rId2"/>
     <hyperlink ref="C165" r:id="rId3"/>
     <hyperlink ref="C189" r:id="rId4"/>
-    <hyperlink ref="F124" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5682,14 +5751,14 @@
       <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="85.28515625" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="85.33203125" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5704,7 +5773,7 @@
       </c>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
@@ -5712,7 +5781,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>166</v>
       </c>
@@ -5726,7 +5795,7 @@
         <v>221.04</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -5734,7 +5803,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -5749,7 +5818,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -5764,7 +5833,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -5778,7 +5847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -5793,7 +5862,7 @@
       </c>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5807,7 +5876,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>184</v>
       </c>
@@ -5821,7 +5890,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>185</v>
       </c>
@@ -5835,7 +5904,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>186</v>
       </c>
@@ -5849,7 +5918,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -5863,7 +5932,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -5877,7 +5946,7 @@
         <v>28.873949579831933</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>137</v>
       </c>
@@ -5891,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>182</v>
       </c>
@@ -5905,7 +5974,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5913,7 +5982,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -5927,7 +5996,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -5942,7 +6011,7 @@
         <v>7.1344537815126055</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -5956,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
@@ -5964,7 +6033,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>154</v>
       </c>
@@ -5972,7 +6041,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>183</v>
       </c>
@@ -5980,7 +6049,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -5994,7 +6063,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>170</v>
       </c>
@@ -6008,7 +6077,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -6016,7 +6085,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>118</v>
       </c>
@@ -6031,7 +6100,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -6045,7 +6114,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -6059,7 +6128,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>155</v>
       </c>
@@ -6067,7 +6136,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>187</v>
       </c>
@@ -6075,7 +6144,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -6083,7 +6152,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>174</v>
       </c>
@@ -6097,7 +6166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>175</v>
       </c>
@@ -6111,7 +6180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>176</v>
       </c>
@@ -6125,7 +6194,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>177</v>
       </c>
@@ -6139,7 +6208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>178</v>
       </c>
@@ -6153,7 +6222,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>179</v>
       </c>
@@ -6168,7 +6237,7 @@
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -6176,7 +6245,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>88</v>
       </c>
@@ -6191,7 +6260,7 @@
         <v>56.21848739495799</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>181</v>
       </c>
@@ -6205,7 +6274,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>86</v>
       </c>
@@ -6219,7 +6288,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -6233,7 +6302,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
@@ -6247,7 +6316,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>68</v>
       </c>
@@ -6261,7 +6330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>164</v>
       </c>
@@ -6275,7 +6344,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
@@ -6290,7 +6359,7 @@
         <v>2.9327731092436977</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>243</v>
       </c>
@@ -6305,7 +6374,7 @@
         <v>126.0420168067227</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>220</v>
       </c>
@@ -6320,7 +6389,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="29" t="s">
         <v>153</v>
       </c>
@@ -6337,7 +6406,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>156</v>
       </c>
@@ -6352,7 +6421,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
@@ -6360,7 +6429,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>219</v>
       </c>
@@ -6374,7 +6443,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>225</v>
       </c>
@@ -6388,7 +6457,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>90</v>
       </c>
@@ -6396,7 +6465,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
@@ -6411,7 +6480,7 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
@@ -6425,7 +6494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -6439,7 +6508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>93</v>
       </c>
@@ -6453,7 +6522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>97</v>
       </c>
@@ -6467,7 +6536,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -6475,7 +6544,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>13</v>
       </c>
@@ -6489,7 +6558,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="31" t="s">
         <v>222</v>
       </c>
@@ -6504,7 +6573,7 @@
       <c r="F63" s="34"/>
       <c r="G63" s="32"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="31" t="s">
         <v>224</v>
       </c>
@@ -6519,7 +6588,7 @@
       <c r="F64" s="34"/>
       <c r="G64" s="32"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>50</v>
       </c>
@@ -6530,7 +6599,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -6555,7 +6624,7 @@
         <v>224.0805</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -6580,7 +6649,7 @@
         <v>18.952500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -6605,7 +6674,7 @@
         <v>22.365000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -6630,7 +6699,7 @@
         <v>190.512</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -6655,7 +6724,7 @@
         <v>29.431500000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -6680,7 +6749,7 @@
         <v>417.78449999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -6705,7 +6774,7 @@
         <v>167.41200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -6730,7 +6799,7 @@
         <v>37.905000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -6755,7 +6824,7 @@
         <v>18.952500000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -6780,7 +6849,7 @@
         <v>48.163499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -6805,7 +6874,7 @@
         <v>48.163499999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -6830,7 +6899,7 @@
         <v>60.144000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -6855,7 +6924,7 @@
         <v>34.503</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -6880,7 +6949,7 @@
         <v>102.59550000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -6894,7 +6963,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -6908,7 +6977,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -6922,7 +6991,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -6936,12 +7005,12 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>106</v>
       </c>
@@ -6955,7 +7024,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>107</v>
       </c>
@@ -6969,7 +7038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>95</v>
       </c>
@@ -6984,7 +7053,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>108</v>
       </c>
@@ -6999,7 +7068,7 @@
         <v>25.48</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>54</v>
       </c>
@@ -7014,7 +7083,7 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>227</v>
       </c>
@@ -7029,12 +7098,12 @@
       <c r="F90" s="35"/>
       <c r="G90" s="36"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>65</v>
       </c>
@@ -7042,7 +7111,7 @@
       <c r="C92" s="4"/>
       <c r="D92" s="15"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>118</v>
       </c>
@@ -7060,7 +7129,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="17" t="s">
         <v>160</v>
       </c>
@@ -7068,7 +7137,7 @@
       <c r="C94" s="4"/>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>161</v>
       </c>
@@ -7082,7 +7151,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>99</v>
       </c>
@@ -7097,7 +7166,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>251</v>
       </c>
@@ -7111,7 +7180,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>252</v>
       </c>
@@ -7125,7 +7194,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="27" t="s">
         <v>253</v>
       </c>
@@ -7140,13 +7209,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B100" s="20"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>254</v>
       </c>
@@ -7161,7 +7230,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>167</v>
       </c>
@@ -7176,7 +7245,7 @@
         <v>30.235294117647058</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>53</v>
       </c>
@@ -7190,7 +7259,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>99</v>
       </c>
@@ -7205,7 +7274,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -7219,7 +7288,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>356</v>
       </c>
@@ -7233,7 +7302,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
         <v>313</v>
       </c>
@@ -7247,7 +7316,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>314</v>
       </c>
@@ -7261,7 +7330,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="72" t="s">
         <v>423</v>
       </c>
@@ -7275,7 +7344,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -7284,18 +7353,18 @@
         <v>52.559579831932773</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>352</v>
       </c>
@@ -7307,7 +7376,7 @@
       </c>
       <c r="D113" s="13"/>
     </row>
-    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -7320,11 +7389,11 @@
       <c r="D114" s="13">
         <v>130</v>
       </c>
-      <c r="E114" s="128" t="s">
+      <c r="E114" s="129" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -7337,9 +7406,9 @@
       <c r="D115" s="13">
         <v>130</v>
       </c>
-      <c r="E115" s="128"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E115" s="129"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>205</v>
       </c>
@@ -7353,31 +7422,31 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C117" s="13"/>
       <c r="D117" s="17">
         <f>SUM(D113:D116)</f>
         <v>260.69</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>163</v>
       </c>
@@ -7387,7 +7456,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>119</v>
       </c>
@@ -7397,13 +7466,13 @@
         <v>540</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="4"/>
       <c r="D123" s="15"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="13"/>
       <c r="C124" s="26" t="s">
         <v>165</v>
@@ -7413,7 +7482,7 @@
         <v>4008.8451260504207</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="13"/>
       <c r="D125" s="22">
         <f>D124*1.19</f>
@@ -7423,15 +7492,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="13"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>34</v>
       </c>
@@ -7439,7 +7508,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>327</v>
       </c>
@@ -7454,7 +7523,7 @@
         <v>17.638655462184872</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>334</v>
       </c>
@@ -7468,7 +7537,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
         <v>399</v>
       </c>
@@ -7482,7 +7551,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
         <v>323</v>
       </c>
@@ -7502,7 +7571,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
         <v>324</v>
       </c>
@@ -7522,7 +7591,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>336</v>
       </c>
@@ -7542,7 +7611,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>325</v>
       </c>
@@ -7556,7 +7625,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>332</v>
       </c>
@@ -7570,7 +7639,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>333</v>
       </c>
@@ -7584,7 +7653,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>354</v>
       </c>
@@ -7599,7 +7668,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="38" t="s">
         <v>319</v>
       </c>
@@ -7607,7 +7676,7 @@
       <c r="C139" s="13"/>
       <c r="D139" s="21"/>
     </row>
-    <row r="140" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A140" s="71" t="s">
         <v>328</v>
       </c>
@@ -7622,7 +7691,7 @@
         <v>15.117647058823529</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
         <v>320</v>
       </c>
@@ -7637,7 +7706,7 @@
         <v>3.151260504201681</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
         <v>329</v>
       </c>
@@ -7652,7 +7721,7 @@
         <v>3.2521008403361349</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
         <v>344</v>
       </c>
@@ -7667,7 +7736,7 @@
         <v>1.596638655462185</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
         <v>330</v>
       </c>
@@ -7681,7 +7750,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="13" t="s">
         <v>338</v>
       </c>
@@ -7695,7 +7764,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
         <v>337</v>
       </c>
@@ -7709,7 +7778,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="13"/>
       <c r="B147" s="20"/>
       <c r="C147" s="39" t="s">
@@ -7720,7 +7789,7 @@
         <v>86.31630252100841</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="D148" s="22">
         <f>D147*1.19</f>
@@ -7730,12 +7799,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="D149" s="22"/>
       <c r="E149" s="18"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>400</v>
       </c>
@@ -7747,7 +7816,7 @@
       </c>
       <c r="E150" s="18"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>401</v>
       </c>
@@ -7759,22 +7828,22 @@
       </c>
       <c r="E151" s="18"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="D152" s="22"/>
       <c r="E152" s="18"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="D153" s="22"/>
       <c r="E153" s="18"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="D154" s="22"/>
       <c r="E154" s="18"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>168</v>
       </c>
@@ -7784,32 +7853,32 @@
       <c r="D155" s="22"/>
       <c r="E155" s="18"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="D156" s="22"/>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="D157" s="22"/>
       <c r="E157" s="18"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>69</v>
       </c>
@@ -7843,14 +7912,14 @@
       <selection activeCell="C116" sqref="C116:D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="112.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="1" max="1" width="112.5546875" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7866,7 +7935,7 @@
       <c r="E1" s="43"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>138</v>
       </c>
@@ -7875,7 +7944,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>266</v>
       </c>
@@ -7897,7 +7966,7 @@
         <v>7.5966386554621845</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>267</v>
       </c>
@@ -7919,7 +7988,7 @@
         <v>10.436974789915965</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>268</v>
       </c>
@@ -7941,7 +8010,7 @@
         <v>6.8907563025210079</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>269</v>
       </c>
@@ -7963,7 +8032,7 @@
         <v>7.5966386554621845</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>270</v>
       </c>
@@ -7985,7 +8054,7 @@
         <v>6.9579831932773111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
         <v>271</v>
       </c>
@@ -8007,7 +8076,7 @@
         <v>13.781512605042016</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
         <v>272</v>
       </c>
@@ -8029,7 +8098,7 @@
         <v>1.6134453781512605</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
         <v>273</v>
       </c>
@@ -8051,7 +8120,7 @@
         <v>1.3025210084033614</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
         <v>274</v>
       </c>
@@ -8073,7 +8142,7 @@
         <v>33.815126050420169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
         <v>371</v>
       </c>
@@ -8095,7 +8164,7 @@
         <v>1.4957983193277311</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
         <v>275</v>
       </c>
@@ -8117,7 +8186,7 @@
         <v>4.7394957983193278</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
         <v>276</v>
       </c>
@@ -8139,7 +8208,7 @@
         <v>3.5966386554621854</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>277</v>
       </c>
@@ -8161,7 +8230,7 @@
         <v>1.0756302521008405</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
         <v>278</v>
       </c>
@@ -8183,7 +8252,7 @@
         <v>2.0840336134453783</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>279</v>
       </c>
@@ -8205,7 +8274,7 @@
         <v>11.731092436974791</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="s">
         <v>349</v>
       </c>
@@ -8227,7 +8296,7 @@
         <v>18.302521008403364</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>280</v>
       </c>
@@ -8249,7 +8318,7 @@
         <v>2.8907563025210083</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>281</v>
       </c>
@@ -8271,7 +8340,7 @@
         <v>7.0588235294117654</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>282</v>
       </c>
@@ -8293,7 +8362,7 @@
         <v>5.8823529411764719</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>283</v>
       </c>
@@ -8315,7 +8384,7 @@
         <v>3.5294117647058827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>373</v>
       </c>
@@ -8337,7 +8406,7 @@
         <v>1.0756302521008405</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="43" t="s">
         <v>284</v>
       </c>
@@ -8359,7 +8428,7 @@
         <v>0.83193277310924374</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>285</v>
       </c>
@@ -8381,7 +8450,7 @@
         <v>1.3865546218487395</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>375</v>
       </c>
@@ -8403,7 +8472,7 @@
         <v>1.9327731092436975</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>374</v>
       </c>
@@ -8425,7 +8494,7 @@
         <v>1.0084033613445378</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>286</v>
       </c>
@@ -8440,7 +8509,7 @@
       </c>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>372</v>
       </c>
@@ -8462,7 +8531,7 @@
         <v>1.277310924369748</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="43" t="s">
         <v>287</v>
       </c>
@@ -8484,7 +8553,7 @@
         <v>3.5294117647058827</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="43" t="s">
         <v>288</v>
       </c>
@@ -8506,7 +8575,7 @@
         <v>1.6134453781512605</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="43" t="s">
         <v>289</v>
       </c>
@@ -8528,7 +8597,7 @@
         <v>1.8907563025210086</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>290</v>
       </c>
@@ -8550,7 +8619,7 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>291</v>
       </c>
@@ -8572,7 +8641,7 @@
         <v>0.84033613445378152</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>292</v>
       </c>
@@ -8594,7 +8663,7 @@
         <v>14.521008403361346</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>293</v>
       </c>
@@ -8616,7 +8685,7 @@
         <v>1.0924369747899161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>294</v>
       </c>
@@ -8638,7 +8707,7 @@
         <v>10.084033613445378</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>295</v>
       </c>
@@ -8660,7 +8729,7 @@
         <v>1.0756302521008405</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>296</v>
       </c>
@@ -8675,7 +8744,7 @@
       </c>
       <c r="E39" s="43"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>297</v>
       </c>
@@ -8690,7 +8759,7 @@
       </c>
       <c r="E40" s="43"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>364</v>
       </c>
@@ -8705,7 +8774,7 @@
       </c>
       <c r="E41" s="43"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>365</v>
       </c>
@@ -8720,7 +8789,7 @@
       </c>
       <c r="E42" s="43"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>298</v>
       </c>
@@ -8735,7 +8804,7 @@
       </c>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="44" t="s">
         <v>101</v>
       </c>
@@ -8744,7 +8813,7 @@
       <c r="D44" s="48"/>
       <c r="E44" s="43"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="47" t="s">
         <v>17</v>
       </c>
@@ -8760,7 +8829,7 @@
       </c>
       <c r="E45" s="43"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="51" t="s">
         <v>253</v>
       </c>
@@ -8775,7 +8844,7 @@
       </c>
       <c r="E46" s="43"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>18</v>
       </c>
@@ -8791,7 +8860,7 @@
       </c>
       <c r="E47" s="43"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="51" t="s">
         <v>237</v>
       </c>
@@ -8807,7 +8876,7 @@
       </c>
       <c r="E48" s="43"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="55" t="s">
         <v>238</v>
       </c>
@@ -8824,7 +8893,7 @@
       <c r="E49" s="43"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="47" t="s">
         <v>142</v>
       </c>
@@ -8839,7 +8908,7 @@
       </c>
       <c r="E50" s="43"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>184</v>
       </c>
@@ -8854,7 +8923,7 @@
       </c>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="47" t="s">
         <v>185</v>
       </c>
@@ -8869,7 +8938,7 @@
       </c>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>186</v>
       </c>
@@ -8884,7 +8953,7 @@
       </c>
       <c r="E53" s="43"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="47" t="s">
         <v>129</v>
       </c>
@@ -8899,7 +8968,7 @@
       </c>
       <c r="E54" s="43"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="47" t="s">
         <v>5</v>
       </c>
@@ -8914,7 +8983,7 @@
       </c>
       <c r="E55" s="43"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="47" t="s">
         <v>376</v>
       </c>
@@ -8930,7 +8999,7 @@
       </c>
       <c r="E56" s="43"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="55" t="s">
         <v>240</v>
       </c>
@@ -8946,7 +9015,7 @@
       </c>
       <c r="E57" s="43"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="44" t="s">
         <v>28</v>
       </c>
@@ -8955,7 +9024,7 @@
       <c r="D58" s="50"/>
       <c r="E58" s="43"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="47" t="s">
         <v>239</v>
       </c>
@@ -8970,7 +9039,7 @@
       </c>
       <c r="E59" s="43"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>102</v>
       </c>
@@ -8986,7 +9055,7 @@
       </c>
       <c r="E60" s="43"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="47" t="s">
         <v>53</v>
       </c>
@@ -9001,7 +9070,7 @@
       </c>
       <c r="E61" s="43"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="47" t="s">
         <v>258</v>
       </c>
@@ -9016,7 +9085,7 @@
       </c>
       <c r="E62" s="43"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="47" t="s">
         <v>257</v>
       </c>
@@ -9031,7 +9100,7 @@
       </c>
       <c r="E63" s="43"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>171</v>
       </c>
@@ -9047,7 +9116,7 @@
       </c>
       <c r="E64" s="43"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="44" t="s">
         <v>27</v>
       </c>
@@ -9056,7 +9125,7 @@
       <c r="D65" s="50"/>
       <c r="E65" s="43"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="47" t="s">
         <v>118</v>
       </c>
@@ -9072,7 +9141,7 @@
       </c>
       <c r="E66" s="43"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="47" t="s">
         <v>258</v>
       </c>
@@ -9087,7 +9156,7 @@
       </c>
       <c r="E67" s="43"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
         <v>47</v>
       </c>
@@ -9102,7 +9171,7 @@
       </c>
       <c r="E68" s="43"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="47" t="s">
         <v>48</v>
       </c>
@@ -9117,7 +9186,7 @@
       </c>
       <c r="E69" s="43"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="44" t="s">
         <v>7</v>
       </c>
@@ -9126,7 +9195,7 @@
       <c r="D70" s="50"/>
       <c r="E70" s="43"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="47" t="s">
         <v>174</v>
       </c>
@@ -9141,7 +9210,7 @@
       </c>
       <c r="E71" s="43"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="47" t="s">
         <v>175</v>
       </c>
@@ -9156,7 +9225,7 @@
       </c>
       <c r="E72" s="43"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="47" t="s">
         <v>176</v>
       </c>
@@ -9171,7 +9240,7 @@
       </c>
       <c r="E73" s="43"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>177</v>
       </c>
@@ -9186,7 +9255,7 @@
       </c>
       <c r="E74" s="43"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="47" t="s">
         <v>178</v>
       </c>
@@ -9201,7 +9270,7 @@
       </c>
       <c r="E75" s="43"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="47" t="s">
         <v>241</v>
       </c>
@@ -9216,7 +9285,7 @@
       </c>
       <c r="E76" s="50"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
         <v>42</v>
       </c>
@@ -9225,7 +9294,7 @@
       <c r="D77" s="50"/>
       <c r="E77" s="43"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>88</v>
       </c>
@@ -9240,7 +9309,7 @@
       </c>
       <c r="E78" s="43"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
         <v>181</v>
       </c>
@@ -9255,7 +9324,7 @@
       </c>
       <c r="E79" s="43"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="47" t="s">
         <v>86</v>
       </c>
@@ -9270,7 +9339,7 @@
       </c>
       <c r="E80" s="43"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="47" t="s">
         <v>11</v>
       </c>
@@ -9285,7 +9354,7 @@
       </c>
       <c r="E81" s="43"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="47" t="s">
         <v>242</v>
       </c>
@@ -9300,7 +9369,7 @@
       </c>
       <c r="E82" s="43"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>300</v>
       </c>
@@ -9315,7 +9384,7 @@
       </c>
       <c r="E83" s="43"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>87</v>
       </c>
@@ -9330,7 +9399,7 @@
       </c>
       <c r="E84" s="43"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="56" t="s">
         <v>243</v>
       </c>
@@ -9346,7 +9415,7 @@
       </c>
       <c r="E85" s="43"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="56" t="s">
         <v>362</v>
       </c>
@@ -9362,7 +9431,7 @@
       </c>
       <c r="E86" s="43"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="56" t="s">
         <v>220</v>
       </c>
@@ -9377,7 +9446,7 @@
       </c>
       <c r="E87" s="47"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
         <v>244</v>
       </c>
@@ -9386,7 +9455,7 @@
       <c r="D88" s="50"/>
       <c r="E88" s="43"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="47" t="s">
         <v>91</v>
       </c>
@@ -9401,7 +9470,7 @@
       </c>
       <c r="E89" s="47"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="47" t="s">
         <v>92</v>
       </c>
@@ -9416,7 +9485,7 @@
       </c>
       <c r="E90" s="43"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="47" t="s">
         <v>94</v>
       </c>
@@ -9431,7 +9500,7 @@
       </c>
       <c r="E91" s="43"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="47" t="s">
         <v>93</v>
       </c>
@@ -9446,7 +9515,7 @@
       </c>
       <c r="E92" s="43"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="47" t="s">
         <v>357</v>
       </c>
@@ -9461,7 +9530,7 @@
       </c>
       <c r="E93" s="43"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="47" t="s">
         <v>359</v>
       </c>
@@ -9476,7 +9545,7 @@
       </c>
       <c r="E94" s="43"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="47" t="s">
         <v>358</v>
       </c>
@@ -9491,7 +9560,7 @@
       </c>
       <c r="E95" s="43"/>
     </row>
-    <row r="96" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="53" t="s">
         <v>191</v>
       </c>
@@ -9506,7 +9575,7 @@
       </c>
       <c r="E96" s="43"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="44" t="s">
         <v>245</v>
       </c>
@@ -9515,7 +9584,7 @@
       <c r="D97" s="58"/>
       <c r="E97" s="43"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="59" t="s">
         <v>13</v>
       </c>
@@ -9530,7 +9599,7 @@
       </c>
       <c r="E98" s="43"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="43" t="s">
         <v>72</v>
       </c>
@@ -9545,7 +9614,7 @@
       </c>
       <c r="E99" s="43"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="43" t="s">
         <v>73</v>
       </c>
@@ -9560,7 +9629,7 @@
       </c>
       <c r="E100" s="43"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="43" t="s">
         <v>74</v>
       </c>
@@ -9575,7 +9644,7 @@
       </c>
       <c r="E101" s="43"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="43" t="s">
         <v>75</v>
       </c>
@@ -9590,7 +9659,7 @@
       </c>
       <c r="E102" s="43"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="43" t="s">
         <v>76</v>
       </c>
@@ -9605,7 +9674,7 @@
       </c>
       <c r="E103" s="43"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="43" t="s">
         <v>77</v>
       </c>
@@ -9620,7 +9689,7 @@
       </c>
       <c r="E104" s="43"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="43" t="s">
         <v>78</v>
       </c>
@@ -9635,7 +9704,7 @@
       </c>
       <c r="E105" s="43"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="43" t="s">
         <v>79</v>
       </c>
@@ -9650,7 +9719,7 @@
       </c>
       <c r="E106" s="43"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="43" t="s">
         <v>80</v>
       </c>
@@ -9665,7 +9734,7 @@
       </c>
       <c r="E107" s="43"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="43" t="s">
         <v>81</v>
       </c>
@@ -9680,7 +9749,7 @@
       </c>
       <c r="E108" s="43"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="43" t="s">
         <v>82</v>
       </c>
@@ -9695,7 +9764,7 @@
       </c>
       <c r="E109" s="43"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="43" t="s">
         <v>83</v>
       </c>
@@ -9710,7 +9779,7 @@
       </c>
       <c r="E110" s="43"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="43" t="s">
         <v>84</v>
       </c>
@@ -9725,7 +9794,7 @@
       </c>
       <c r="E111" s="43"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="43" t="s">
         <v>85</v>
       </c>
@@ -9740,7 +9809,7 @@
       </c>
       <c r="E112" s="43"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="43" t="s">
         <v>261</v>
       </c>
@@ -9755,7 +9824,7 @@
       </c>
       <c r="E113" s="43"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="43" t="s">
         <v>128</v>
       </c>
@@ -9770,7 +9839,7 @@
       </c>
       <c r="E114" s="43"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="44" t="s">
         <v>43</v>
       </c>
@@ -9779,7 +9848,7 @@
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="53" t="s">
         <v>246</v>
       </c>
@@ -9794,7 +9863,7 @@
       </c>
       <c r="E116" s="43"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="53" t="s">
         <v>247</v>
       </c>
@@ -9809,7 +9878,7 @@
       </c>
       <c r="E117" s="43"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="53" t="s">
         <v>95</v>
       </c>
@@ -9825,7 +9894,7 @@
       </c>
       <c r="E118" s="43"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="53" t="s">
         <v>108</v>
       </c>
@@ -9841,7 +9910,7 @@
       </c>
       <c r="E119" s="43"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="53" t="s">
         <v>260</v>
       </c>
@@ -9857,7 +9926,7 @@
       </c>
       <c r="E120" s="43"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="53" t="s">
         <v>54</v>
       </c>
@@ -9873,7 +9942,7 @@
       </c>
       <c r="E121" s="43"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="53" t="s">
         <v>248</v>
       </c>
@@ -9889,7 +9958,7 @@
       </c>
       <c r="E122" s="43"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="47" t="s">
         <v>118</v>
       </c>
@@ -9905,7 +9974,7 @@
       </c>
       <c r="E123" s="43"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="61" t="s">
         <v>160</v>
       </c>
@@ -9914,7 +9983,7 @@
       <c r="D124" s="54"/>
       <c r="E124" s="43"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="53" t="s">
         <v>259</v>
       </c>
@@ -9929,7 +9998,7 @@
       </c>
       <c r="E125" s="43"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="47" t="s">
         <v>219</v>
       </c>
@@ -9944,7 +10013,7 @@
       </c>
       <c r="E126" s="43"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="47" t="s">
         <v>225</v>
       </c>
@@ -9959,7 +10028,7 @@
       </c>
       <c r="E127" s="43"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="53" t="s">
         <v>99</v>
       </c>
@@ -9975,7 +10044,7 @@
       </c>
       <c r="E128" s="43"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="53" t="s">
         <v>262</v>
       </c>
@@ -9990,7 +10059,7 @@
       </c>
       <c r="E129" s="43"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="43" t="s">
         <v>263</v>
       </c>
@@ -10006,7 +10075,7 @@
       </c>
       <c r="E130" s="43"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="61" t="s">
         <v>24</v>
       </c>
@@ -10015,7 +10084,7 @@
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="53" t="s">
         <v>255</v>
       </c>
@@ -10031,7 +10100,7 @@
       </c>
       <c r="E132" s="43"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="53" t="s">
         <v>167</v>
       </c>
@@ -10047,7 +10116,7 @@
       </c>
       <c r="E133" s="43"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="53" t="s">
         <v>53</v>
       </c>
@@ -10062,7 +10131,7 @@
       </c>
       <c r="E134" s="43"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="53" t="s">
         <v>99</v>
       </c>
@@ -10077,7 +10146,7 @@
       </c>
       <c r="E135" s="43"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="53" t="s">
         <v>350</v>
       </c>
@@ -10092,7 +10161,7 @@
       </c>
       <c r="E136" s="43"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
         <v>356</v>
       </c>
@@ -10107,7 +10176,7 @@
       </c>
       <c r="E137" s="43"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="53" t="s">
         <v>351</v>
       </c>
@@ -10122,7 +10191,7 @@
       </c>
       <c r="E138" s="43"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="53" t="s">
         <v>355</v>
       </c>
@@ -10138,7 +10207,7 @@
       </c>
       <c r="E139" s="43"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="74" t="s">
         <v>423</v>
       </c>
@@ -10153,7 +10222,7 @@
       </c>
       <c r="E140" s="43"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="62" t="s">
         <v>25</v>
       </c>
@@ -10162,7 +10231,7 @@
       <c r="D141" s="43"/>
       <c r="E141" s="43"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>352</v>
       </c>
@@ -10175,7 +10244,7 @@
       <c r="D142" s="43"/>
       <c r="E142" s="43"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="43" t="s">
         <v>201</v>
       </c>
@@ -10188,11 +10257,11 @@
       <c r="D143" s="54">
         <v>5.2</v>
       </c>
-      <c r="E143" s="129" t="s">
+      <c r="E143" s="130" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="43" t="s">
         <v>202</v>
       </c>
@@ -10205,9 +10274,9 @@
       <c r="D144" s="54">
         <v>5.2</v>
       </c>
-      <c r="E144" s="130"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E144" s="131"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="43" t="s">
         <v>265</v>
       </c>
@@ -10222,7 +10291,7 @@
       </c>
       <c r="E145" s="43"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="61" t="s">
         <v>162</v>
       </c>
@@ -10231,7 +10300,7 @@
       <c r="D146" s="43"/>
       <c r="E146" s="43"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="53" t="s">
         <v>163</v>
       </c>
@@ -10242,7 +10311,7 @@
       </c>
       <c r="E147" s="43"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="53" t="s">
         <v>119</v>
       </c>
@@ -10253,7 +10322,7 @@
       </c>
       <c r="E148" s="43"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="53"/>
       <c r="B149" s="60"/>
       <c r="C149" s="63" t="s">
@@ -10265,7 +10334,7 @@
       </c>
       <c r="E149" s="43"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="53"/>
       <c r="B150" s="60"/>
       <c r="C150" s="43"/>
@@ -10277,7 +10346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="65" t="s">
         <v>26</v>
       </c>
@@ -10286,7 +10355,7 @@
       <c r="D151" s="43"/>
       <c r="E151" s="43"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="61" t="s">
         <v>34</v>
       </c>
@@ -10295,7 +10364,7 @@
       <c r="D152" s="43"/>
       <c r="E152" s="43"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="66" t="s">
         <v>345</v>
       </c>
@@ -10304,7 +10373,7 @@
       <c r="D153" s="43"/>
       <c r="E153" s="43"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="53" t="s">
         <v>327</v>
       </c>
@@ -10320,7 +10389,7 @@
       </c>
       <c r="E154" s="43"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="53" t="s">
         <v>334</v>
       </c>
@@ -10335,7 +10404,7 @@
       </c>
       <c r="E155" s="43"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="53" t="s">
         <v>369</v>
       </c>
@@ -10350,7 +10419,7 @@
       </c>
       <c r="E156" s="43"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="53" t="s">
         <v>323</v>
       </c>
@@ -10365,7 +10434,7 @@
       </c>
       <c r="E157" s="43"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="53" t="s">
         <v>324</v>
       </c>
@@ -10380,7 +10449,7 @@
       </c>
       <c r="E158" s="43"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="53" t="s">
         <v>336</v>
       </c>
@@ -10395,7 +10464,7 @@
       </c>
       <c r="E159" s="43"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="53" t="s">
         <v>325</v>
       </c>
@@ -10410,7 +10479,7 @@
       </c>
       <c r="E160" s="43"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="53" t="s">
         <v>332</v>
       </c>
@@ -10425,7 +10494,7 @@
       </c>
       <c r="E161" s="43"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="53" t="s">
         <v>333</v>
       </c>
@@ -10440,7 +10509,7 @@
       </c>
       <c r="E162" s="43"/>
     </row>
-    <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A163" s="70" t="s">
         <v>363</v>
       </c>
@@ -10455,7 +10524,7 @@
       </c>
       <c r="E163" s="43"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="53" t="s">
         <v>370</v>
       </c>
@@ -10471,7 +10540,7 @@
       </c>
       <c r="E164" s="43"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="66" t="s">
         <v>319</v>
       </c>
@@ -10480,7 +10549,7 @@
       <c r="D165" s="45"/>
       <c r="E165" s="43"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="53" t="s">
         <v>342</v>
       </c>
@@ -10496,7 +10565,7 @@
       </c>
       <c r="E166" s="43"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="53" t="s">
         <v>343</v>
       </c>
@@ -10512,7 +10581,7 @@
       </c>
       <c r="E167" s="43"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="53" t="s">
         <v>329</v>
       </c>
@@ -10528,7 +10597,7 @@
       </c>
       <c r="E168" s="43"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="53" t="s">
         <v>344</v>
       </c>
@@ -10544,7 +10613,7 @@
       </c>
       <c r="E169" s="43"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="53" t="s">
         <v>330</v>
       </c>
@@ -10559,7 +10628,7 @@
       </c>
       <c r="E170" s="43"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="53" t="s">
         <v>338</v>
       </c>
@@ -10574,7 +10643,7 @@
       </c>
       <c r="E171" s="43"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A172" s="53" t="s">
         <v>339</v>
       </c>
@@ -10589,7 +10658,7 @@
       </c>
       <c r="E172" s="43"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="66" t="s">
         <v>162</v>
       </c>
@@ -10598,7 +10667,7 @@
       <c r="D173" s="54"/>
       <c r="E173" s="43"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="53" t="s">
         <v>346</v>
       </c>
@@ -10609,7 +10678,7 @@
       </c>
       <c r="E174" s="43"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="53" t="s">
         <v>119</v>
       </c>
@@ -10620,7 +10689,7 @@
       </c>
       <c r="E175" s="43"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="53"/>
       <c r="B176" s="60"/>
       <c r="C176" s="67" t="s">
@@ -10634,7 +10703,7 @@
       <c r="F176" s="21"/>
       <c r="K176" s="37"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="47"/>
       <c r="B177" s="60"/>
       <c r="C177" s="43"/>
@@ -10646,7 +10715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A178" s="53" t="s">
         <v>341</v>
       </c>
@@ -10655,7 +10724,7 @@
       <c r="D178" s="43"/>
       <c r="E178" s="43"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="53" t="s">
         <v>368</v>
       </c>
@@ -10670,7 +10739,7 @@
       </c>
       <c r="E179" s="43"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="68"/>
     </row>
   </sheetData>
@@ -10706,13 +10775,13 @@
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10729,7 +10798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
@@ -10737,7 +10806,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>139</v>
       </c>
@@ -10754,7 +10823,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -10762,7 +10831,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -10777,7 +10846,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -10792,7 +10861,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -10806,7 +10875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -10823,7 +10892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>211</v>
       </c>
@@ -10840,7 +10909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -10858,7 +10927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -10872,7 +10941,7 @@
         <v>28.873949579831933</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>309</v>
       </c>
@@ -10886,7 +10955,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>308</v>
       </c>
@@ -10900,7 +10969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -10914,7 +10983,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -10928,7 +10997,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -10942,7 +11011,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -10950,7 +11019,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>239</v>
       </c>
@@ -10964,7 +11033,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -10979,7 +11048,7 @@
         <v>7.1344537815126055</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -10993,7 +11062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
@@ -11001,7 +11070,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>154</v>
       </c>
@@ -11009,7 +11078,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>310</v>
       </c>
@@ -11023,7 +11092,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -11037,7 +11106,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -11051,7 +11120,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -11059,7 +11128,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>118</v>
       </c>
@@ -11074,7 +11143,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -11088,7 +11157,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -11102,7 +11171,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>155</v>
       </c>
@@ -11110,7 +11179,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>311</v>
       </c>
@@ -11118,7 +11187,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -11126,7 +11195,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>174</v>
       </c>
@@ -11143,7 +11212,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>175</v>
       </c>
@@ -11154,7 +11223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>176</v>
       </c>
@@ -11166,7 +11235,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>177</v>
       </c>
@@ -11178,7 +11247,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>178</v>
       </c>
@@ -11190,7 +11259,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>312</v>
       </c>
@@ -11204,12 +11273,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>301</v>
       </c>
@@ -11224,7 +11293,7 @@
         <v>56.21848739495799</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -11238,7 +11307,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -11252,7 +11321,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>67</v>
       </c>
@@ -11266,7 +11335,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>300</v>
       </c>
@@ -11280,7 +11349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
@@ -11295,7 +11364,7 @@
         <v>2.9327731092436977</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>243</v>
       </c>
@@ -11310,7 +11379,7 @@
         <v>126.0420168067227</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>220</v>
       </c>
@@ -11325,7 +11394,7 @@
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>302</v>
       </c>
@@ -11340,7 +11409,7 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
@@ -11348,7 +11417,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>216</v>
       </c>
@@ -11362,7 +11431,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>229</v>
       </c>
@@ -11376,7 +11445,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>90</v>
       </c>
@@ -11384,7 +11453,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>91</v>
       </c>
@@ -11399,7 +11468,7 @@
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -11413,7 +11482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>94</v>
       </c>
@@ -11427,7 +11496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>93</v>
       </c>
@@ -11441,7 +11510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>97</v>
       </c>
@@ -11458,7 +11527,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>191</v>
       </c>
@@ -11472,7 +11541,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -11480,7 +11549,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="12" t="s">
         <v>222</v>
       </c>
@@ -11495,7 +11564,7 @@
       <c r="F60" s="34"/>
       <c r="G60" s="32"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
         <v>305</v>
       </c>
@@ -11510,7 +11579,7 @@
       <c r="F61" s="34"/>
       <c r="G61" s="32"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
         <v>261</v>
       </c>
@@ -11524,7 +11593,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>13</v>
       </c>
@@ -11538,7 +11607,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>192</v>
       </c>
@@ -11552,7 +11621,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="25" t="s">
         <v>50</v>
       </c>
@@ -11566,7 +11635,7 @@
         <v>224.1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -11580,7 +11649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -11594,7 +11663,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -11608,7 +11677,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -11622,7 +11691,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -11636,7 +11705,7 @@
         <v>417.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -11650,7 +11719,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -11664,7 +11733,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -11678,7 +11747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -11692,7 +11761,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -11706,7 +11775,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -11720,7 +11789,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -11734,7 +11803,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -11748,7 +11817,7 @@
         <v>32.86</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -11762,12 +11831,12 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>106</v>
       </c>
@@ -11781,7 +11850,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>107</v>
       </c>
@@ -11795,7 +11864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>95</v>
       </c>
@@ -11810,7 +11879,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>108</v>
       </c>
@@ -11825,7 +11894,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>264</v>
       </c>
@@ -11840,7 +11909,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>231</v>
       </c>
@@ -11855,7 +11924,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>303</v>
       </c>
@@ -11870,7 +11939,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="36"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>193</v>
       </c>
@@ -11885,7 +11954,7 @@
         <v>23.529411764705884</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>65</v>
       </c>
@@ -11893,7 +11962,7 @@
       <c r="C89" s="4"/>
       <c r="D89" s="15"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>232</v>
       </c>
@@ -11908,7 +11977,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="17" t="s">
         <v>160</v>
       </c>
@@ -11916,7 +11985,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="15"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>189</v>
       </c>
@@ -11937,7 +12006,7 @@
         <v>672.26890756302521</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>207</v>
       </c>
@@ -11955,7 +12024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>208</v>
       </c>
@@ -11969,7 +12038,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>209</v>
       </c>
@@ -11983,7 +12052,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>206</v>
       </c>
@@ -11997,7 +12066,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>99</v>
       </c>
@@ -12012,7 +12081,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>197</v>
       </c>
@@ -12026,7 +12095,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>198</v>
       </c>
@@ -12040,7 +12109,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>214</v>
       </c>
@@ -12054,12 +12123,12 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>49</v>
       </c>
@@ -12074,7 +12143,7 @@
         <v>58.655462184873947</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>31</v>
       </c>
@@ -12088,7 +12157,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>32</v>
       </c>
@@ -12103,7 +12172,7 @@
       </c>
       <c r="E104" s="21"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
         <v>60</v>
       </c>
@@ -12122,7 +12191,7 @@
         <v>147.55512605042014</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>119</v>
       </c>
@@ -12130,11 +12199,11 @@
         <v>540</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="13"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="13"/>
       <c r="D108" s="22">
         <f>SUM(D3:D106)</f>
@@ -12150,23 +12219,23 @@
         <v>1717.44</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="13"/>
       <c r="D109" s="21">
         <f>D108*1.19</f>
         <v>4024.9732999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="13"/>
       <c r="D110" s="21"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>212</v>
       </c>
@@ -12183,7 +12252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>213</v>
       </c>
@@ -12197,7 +12266,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
         <v>114</v>
       </c>
@@ -12217,7 +12286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>112</v>
       </c>
@@ -12231,7 +12300,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="30" t="s">
         <v>173</v>
       </c>
@@ -12248,7 +12317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>121</v>
       </c>
@@ -12262,20 +12331,20 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="13"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
         <v>55</v>
       </c>
@@ -12290,7 +12359,7 @@
         <v>17.638655462184872</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
         <v>56</v>
       </c>
@@ -12305,7 +12374,7 @@
         <v>1.5042016806722691</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
         <v>57</v>
       </c>
@@ -12324,7 +12393,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
         <v>123</v>
       </c>
@@ -12342,7 +12411,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
         <v>124</v>
       </c>
@@ -12360,7 +12429,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
         <v>122</v>
       </c>
@@ -12374,7 +12443,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
         <v>125</v>
       </c>
@@ -12388,7 +12457,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>127</v>
       </c>
@@ -12402,7 +12471,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
         <v>59</v>
       </c>
@@ -12417,7 +12486,7 @@
         <v>9.6638655462184886</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
         <v>58</v>
       </c>
@@ -12432,19 +12501,19 @@
         <v>9.5630252100840352</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="13"/>
       <c r="D131" s="22">
         <f>SUM(D121:D130)</f>
         <v>57.892016806722694</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
         <v>39</v>
       </c>
@@ -12459,7 +12528,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
         <v>41</v>
       </c>
@@ -12474,7 +12543,7 @@
         <v>30.235294117647058</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
         <v>53</v>
       </c>
@@ -12488,7 +12557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
         <v>99</v>
       </c>
@@ -12503,7 +12572,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -12517,7 +12586,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
         <v>195</v>
       </c>
@@ -12531,7 +12600,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>234</v>
       </c>
@@ -12542,18 +12611,18 @@
         <v>51.639579831932771</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="13"/>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
       <c r="D140" s="15"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -12567,7 +12636,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -12584,7 +12653,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -12601,7 +12670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>205</v>
       </c>
@@ -12615,136 +12684,136 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D146" s="18">
         <f>SUM(D142:D145)</f>
         <v>274.89</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>230</v>
       </c>

--- a/2LabsToGo-Eco-Hardware/Material-Lists/Bill of Material.xlsx
+++ b/2LabsToGo-Eco-Hardware/Material-Lists/Bill of Material.xlsx
@@ -1337,9 +1337,6 @@
     <t>Digikey/local workshop</t>
   </si>
   <si>
-    <t>Hebo UV-filter glass HU02, 25x25x3 mm</t>
-  </si>
-  <si>
     <t>1) See Dold basket</t>
   </si>
   <si>
@@ -1714,6 +1711,9 @@
   </si>
   <si>
     <t>8) Ask piezoelements, if the atomizers are available as 'conventional products', to order a lower amount.</t>
+  </si>
+  <si>
+    <t>Hebo UV-filter glass HU02, 50x25x3 mm</t>
   </si>
 </sst>
 </file>
@@ -2758,36 +2758,36 @@
   </sheetPr>
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A211" sqref="A211"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="96.44140625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="78" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="78" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="78" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="78"/>
+    <col min="1" max="1" width="96.42578125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="78" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="78" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="78" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="77" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
       <c r="E1" s="80"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
       <c r="E2" s="80"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
         <v>0</v>
       </c>
@@ -2798,20 +2798,20 @@
         <v>2</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E3" s="80"/>
     </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B4" s="87"/>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
       <c r="E4" s="80"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="90" t="s">
         <v>266</v>
       </c>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="E5" s="80"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="90" t="s">
         <v>267</v>
       </c>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="E6" s="80"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="90" t="s">
         <v>268</v>
       </c>
@@ -2856,7 +2856,7 @@
       </c>
       <c r="E7" s="80"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="90" t="s">
         <v>269</v>
       </c>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="E8" s="80"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="90" t="s">
         <v>270</v>
       </c>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="E9" s="80"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="90" t="s">
         <v>271</v>
       </c>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="E10" s="80"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="90" t="s">
         <v>272</v>
       </c>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="E11" s="80"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="90" t="s">
         <v>273</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="E12" s="80"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="90" t="s">
         <v>394</v>
       </c>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="E13" s="80"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="90" t="s">
         <v>371</v>
       </c>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="E14" s="80"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="90" t="s">
         <v>275</v>
       </c>
@@ -2976,7 +2976,7 @@
       </c>
       <c r="E15" s="80"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="90" t="s">
         <v>276</v>
       </c>
@@ -2991,7 +2991,7 @@
       </c>
       <c r="E16" s="80"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="90" t="s">
         <v>378</v>
       </c>
@@ -3006,7 +3006,7 @@
       </c>
       <c r="E17" s="80"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="90" t="s">
         <v>278</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="E18" s="80"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="90" t="s">
         <v>406</v>
       </c>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E19" s="80"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="90" t="s">
         <v>379</v>
       </c>
@@ -3051,7 +3051,7 @@
       </c>
       <c r="E20" s="80"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="90" t="s">
         <v>380</v>
       </c>
@@ -3066,7 +3066,7 @@
       </c>
       <c r="E21" s="80"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="90" t="s">
         <v>281</v>
       </c>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="E22" s="80"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="90" t="s">
         <v>282</v>
       </c>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="E23" s="80"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="90" t="s">
         <v>283</v>
       </c>
@@ -3111,7 +3111,7 @@
       </c>
       <c r="E24" s="80"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="90" t="s">
         <v>373</v>
       </c>
@@ -3126,7 +3126,7 @@
       </c>
       <c r="E25" s="80"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="90" t="s">
         <v>284</v>
       </c>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="E26" s="80"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="90" t="s">
         <v>285</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
       <c r="E27" s="80"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="90" t="s">
         <v>375</v>
       </c>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="E28" s="80"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="90" t="s">
         <v>374</v>
       </c>
@@ -3186,9 +3186,9 @@
       </c>
       <c r="E29" s="80"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B30" s="91">
         <v>1</v>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="E30" s="80"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="90" t="s">
         <v>286</v>
       </c>
@@ -3216,7 +3216,7 @@
       </c>
       <c r="E31" s="80"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="90" t="s">
         <v>372</v>
       </c>
@@ -3231,7 +3231,7 @@
       </c>
       <c r="E32" s="80"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="90" t="s">
         <v>287</v>
       </c>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E33" s="80"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="90" t="s">
         <v>381</v>
       </c>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="E34" s="80"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="90" t="s">
         <v>288</v>
       </c>
@@ -3276,7 +3276,7 @@
       </c>
       <c r="E35" s="80"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="90" t="s">
         <v>289</v>
       </c>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="E36" s="80"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="90" t="s">
         <v>290</v>
       </c>
@@ -3306,7 +3306,7 @@
       </c>
       <c r="E37" s="80"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="90" t="s">
         <v>291</v>
       </c>
@@ -3321,9 +3321,9 @@
       </c>
       <c r="E38" s="80"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B39" s="91">
         <v>2</v>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="E39" s="80"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="90" t="s">
         <v>292</v>
       </c>
@@ -3351,7 +3351,7 @@
       </c>
       <c r="E40" s="80"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="90" t="s">
         <v>293</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="E41" s="80"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="90" t="s">
         <v>294</v>
       </c>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="E42" s="80"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="90" t="s">
         <v>295</v>
       </c>
@@ -3396,16 +3396,16 @@
       </c>
       <c r="E43" s="80"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B44" s="91"/>
       <c r="C44" s="92"/>
       <c r="D44" s="93"/>
       <c r="E44" s="80"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="94" t="s">
         <v>318</v>
       </c>
@@ -3420,7 +3420,7 @@
       </c>
       <c r="E45" s="80"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="92" t="s">
         <v>377</v>
       </c>
@@ -3435,9 +3435,9 @@
       </c>
       <c r="E46" s="80"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="98" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B47" s="99">
         <v>8</v>
@@ -3450,7 +3450,7 @@
       </c>
       <c r="E47" s="80"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="92" t="s">
         <v>224</v>
       </c>
@@ -3465,7 +3465,7 @@
       </c>
       <c r="E48" s="80"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="88" t="s">
         <v>101</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="D49" s="103"/>
       <c r="E49" s="80"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="90" t="s">
         <v>17</v>
       </c>
@@ -3490,7 +3490,7 @@
       </c>
       <c r="E50" s="80"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="90" t="s">
         <v>18</v>
       </c>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="E51" s="80"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="90" t="s">
         <v>20</v>
       </c>
@@ -3521,7 +3521,7 @@
       </c>
       <c r="E52" s="80"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="90" t="s">
         <v>64</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="E53" s="80"/>
       <c r="I53" s="79"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="90" t="s">
         <v>211</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E54" s="80"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="90" t="s">
         <v>23</v>
       </c>
@@ -3568,7 +3568,7 @@
       </c>
       <c r="E55" s="80"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="90" t="s">
         <v>5</v>
       </c>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="E56" s="80"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="90" t="s">
         <v>388</v>
       </c>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="E57" s="80"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="90" t="s">
         <v>389</v>
       </c>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="E58" s="80"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="92" t="s">
         <v>129</v>
       </c>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="E59" s="80"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="92" t="s">
         <v>140</v>
       </c>
@@ -3643,7 +3643,7 @@
       </c>
       <c r="E60" s="80"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="92" t="s">
         <v>395</v>
       </c>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="E61" s="80"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="88" t="s">
         <v>28</v>
       </c>
@@ -3667,7 +3667,7 @@
       <c r="D62" s="93"/>
       <c r="E62" s="80"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="90" t="s">
         <v>391</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="E63" s="80"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="90" t="s">
         <v>102</v>
       </c>
@@ -3698,7 +3698,7 @@
       </c>
       <c r="E64" s="80"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="90" t="s">
         <v>53</v>
       </c>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="E65" s="80"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="90" t="s">
         <v>104</v>
       </c>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="E66" s="80"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="92" t="s">
         <v>171</v>
       </c>
@@ -3743,7 +3743,7 @@
       </c>
       <c r="E67" s="80"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="88" t="s">
         <v>27</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="D68" s="104"/>
       <c r="E68" s="80"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="90" t="s">
         <v>118</v>
       </c>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E69" s="80"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="90" t="s">
         <v>384</v>
       </c>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="E70" s="80"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="90" t="s">
         <v>385</v>
       </c>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="E71" s="80"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="88" t="s">
         <v>7</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="D72" s="93"/>
       <c r="E72" s="80"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="90" t="s">
         <v>174</v>
       </c>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="E73" s="80"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="90" t="s">
         <v>175</v>
       </c>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="E74" s="80"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="90" t="s">
         <v>176</v>
       </c>
@@ -3852,7 +3852,7 @@
       </c>
       <c r="E75" s="80"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="90" t="s">
         <v>177</v>
       </c>
@@ -3867,7 +3867,7 @@
       </c>
       <c r="E76" s="80"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="90" t="s">
         <v>386</v>
       </c>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="E77" s="80"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="90" t="s">
         <v>387</v>
       </c>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="E78" s="81"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="88" t="s">
         <v>42</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="D79" s="93"/>
       <c r="E79" s="80"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="90" t="s">
         <v>367</v>
       </c>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="E80" s="80"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="90" t="s">
         <v>86</v>
       </c>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="E81" s="80"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="90" t="s">
         <v>316</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="E82" s="80"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="90" t="s">
         <v>11</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
       <c r="E83" s="80"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="90" t="s">
         <v>242</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="E84" s="80"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="90" t="s">
         <v>300</v>
       </c>
@@ -3997,7 +3997,7 @@
       </c>
       <c r="E85" s="80"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="90" t="s">
         <v>407</v>
       </c>
@@ -4010,7 +4010,7 @@
       <c r="D86" s="97"/>
       <c r="E86" s="81"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="90" t="s">
         <v>87</v>
       </c>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="E87" s="80"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="94" t="s">
         <v>243</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="E88" s="80"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="94" t="s">
         <v>362</v>
       </c>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E89" s="80"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="94" t="s">
         <v>220</v>
       </c>
@@ -4073,7 +4073,7 @@
       </c>
       <c r="E90" s="82"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="88" t="s">
         <v>89</v>
       </c>
@@ -4082,7 +4082,7 @@
       <c r="D91" s="105"/>
       <c r="E91" s="80"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="90" t="s">
         <v>315</v>
       </c>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="E92" s="80"/>
     </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="90" t="s">
         <v>229</v>
       </c>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="E93" s="80"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="88" t="s">
         <v>90</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="D94" s="93"/>
       <c r="E94" s="80"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="90" t="s">
         <v>91</v>
       </c>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E95" s="82"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="90" t="s">
         <v>92</v>
       </c>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="E96" s="80"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="90" t="s">
         <v>94</v>
       </c>
@@ -4166,7 +4166,7 @@
       </c>
       <c r="E97" s="80"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="90" t="s">
         <v>93</v>
       </c>
@@ -4181,7 +4181,7 @@
       </c>
       <c r="E98" s="80"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="90" t="s">
         <v>357</v>
       </c>
@@ -4196,7 +4196,7 @@
       </c>
       <c r="E99" s="80"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="90" t="s">
         <v>359</v>
       </c>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="E100" s="80"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="90" t="s">
         <v>358</v>
       </c>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="E101" s="80"/>
     </row>
-    <row r="102" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="98" t="s">
         <v>191</v>
       </c>
@@ -4241,16 +4241,16 @@
       </c>
       <c r="E102" s="80"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="88" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B103" s="91"/>
       <c r="C103" s="90"/>
       <c r="D103" s="96"/>
       <c r="E103" s="80"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="94" t="s">
         <v>13</v>
       </c>
@@ -4265,7 +4265,7 @@
       </c>
       <c r="E104" s="80"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="92" t="s">
         <v>72</v>
       </c>
@@ -4280,7 +4280,7 @@
       </c>
       <c r="E105" s="80"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="92" t="s">
         <v>73</v>
       </c>
@@ -4295,7 +4295,7 @@
       </c>
       <c r="E106" s="80"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="92" t="s">
         <v>74</v>
       </c>
@@ -4310,7 +4310,7 @@
       </c>
       <c r="E107" s="80"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="92" t="s">
         <v>75</v>
       </c>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="E108" s="80"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="92" t="s">
         <v>76</v>
       </c>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="E109" s="80"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="92" t="s">
         <v>77</v>
       </c>
@@ -4355,9 +4355,9 @@
       </c>
       <c r="E110" s="80"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B111" s="97">
         <v>1</v>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="E111" s="80"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="92" t="s">
         <v>79</v>
       </c>
@@ -4385,7 +4385,7 @@
       </c>
       <c r="E112" s="80"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="92" t="s">
         <v>80</v>
       </c>
@@ -4400,7 +4400,7 @@
       </c>
       <c r="E113" s="80"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="92" t="s">
         <v>382</v>
       </c>
@@ -4415,7 +4415,7 @@
       </c>
       <c r="E114" s="80"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="92" t="s">
         <v>82</v>
       </c>
@@ -4430,7 +4430,7 @@
       </c>
       <c r="E115" s="80"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="92" t="s">
         <v>83</v>
       </c>
@@ -4445,7 +4445,7 @@
       </c>
       <c r="E116" s="80"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="92" t="s">
         <v>84</v>
       </c>
@@ -4460,7 +4460,7 @@
       </c>
       <c r="E117" s="80"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="92" t="s">
         <v>85</v>
       </c>
@@ -4475,7 +4475,7 @@
       </c>
       <c r="E118" s="83"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="92" t="s">
         <v>192</v>
       </c>
@@ -4490,7 +4490,7 @@
       </c>
       <c r="E119" s="80"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="88" t="s">
         <v>43</v>
       </c>
@@ -4499,9 +4499,9 @@
       <c r="D120" s="97"/>
       <c r="E120" s="80"/>
     </row>
-    <row r="121" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A121" s="98" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B121" s="91">
         <v>2</v>
@@ -4514,9 +4514,9 @@
       </c>
       <c r="E121" s="80"/>
     </row>
-    <row r="122" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A122" s="98" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B122" s="91">
         <v>2</v>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E122" s="80"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="106" t="s">
         <v>95</v>
       </c>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="E123" s="80"/>
     </row>
-    <row r="124" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="106" t="s">
         <v>108</v>
       </c>
@@ -4562,9 +4562,9 @@
       <c r="E124" s="80"/>
       <c r="F124" s="16"/>
     </row>
-    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="98" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B125" s="99">
         <v>2</v>
@@ -4579,7 +4579,7 @@
       <c r="E125" s="80"/>
       <c r="F125" s="126"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="98" t="s">
         <v>231</v>
       </c>
@@ -4595,9 +4595,9 @@
       </c>
       <c r="E126" s="80"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="98" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="B127" s="99">
         <v>2</v>
@@ -4611,9 +4611,9 @@
       </c>
       <c r="E127" s="80"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="90" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B128" s="91">
         <v>8</v>
@@ -4627,7 +4627,7 @@
       </c>
       <c r="E128" s="80"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="111" t="s">
         <v>160</v>
       </c>
@@ -4636,24 +4636,24 @@
       <c r="D129" s="100"/>
       <c r="E129" s="80"/>
     </row>
-    <row r="130" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A130" s="98" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B130" s="99">
         <v>1</v>
       </c>
       <c r="C130" s="90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D130" s="100">
         <v>672.27</v>
       </c>
       <c r="E130" s="80"/>
     </row>
-    <row r="131" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A131" s="98" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B131" s="99">
         <v>4</v>
@@ -4667,9 +4667,9 @@
       </c>
       <c r="E131" s="80"/>
     </row>
-    <row r="132" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A132" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B132" s="99">
         <v>1</v>
@@ -4682,9 +4682,9 @@
       </c>
       <c r="E132" s="80"/>
     </row>
-    <row r="133" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A133" s="98" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B133" s="99">
         <v>1</v>
@@ -4697,9 +4697,9 @@
       </c>
       <c r="E133" s="80"/>
     </row>
-    <row r="134" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A134" s="98" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B134" s="99">
         <v>1</v>
@@ -4712,9 +4712,9 @@
       </c>
       <c r="E134" s="80"/>
     </row>
-    <row r="135" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A135" s="98" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B135" s="99">
         <v>1</v>
@@ -4727,9 +4727,9 @@
       </c>
       <c r="E135" s="80"/>
     </row>
-    <row r="136" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A136" s="98" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B136" s="99">
         <v>1</v>
@@ -4742,7 +4742,7 @@
       </c>
       <c r="E136" s="80"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="98" t="s">
         <v>99</v>
       </c>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="E137" s="80"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="98" t="s">
         <v>330</v>
       </c>
@@ -4773,9 +4773,9 @@
       </c>
       <c r="E138" s="80"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="98" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B139" s="99">
         <v>2</v>
@@ -4788,9 +4788,9 @@
       </c>
       <c r="E139" s="80"/>
     </row>
-    <row r="140" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A140" s="98" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B140" s="99">
         <v>1</v>
@@ -4803,9 +4803,9 @@
       </c>
       <c r="E140" s="80"/>
     </row>
-    <row r="141" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A141" s="98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B141" s="99">
         <v>1</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="E141" s="80"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="111" t="s">
         <v>218</v>
       </c>
@@ -4827,7 +4827,7 @@
       <c r="D142" s="97"/>
       <c r="E142" s="80"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="98" t="s">
         <v>49</v>
       </c>
@@ -4842,7 +4842,7 @@
       </c>
       <c r="E143" s="80"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="90" t="s">
         <v>31</v>
       </c>
@@ -4857,9 +4857,9 @@
       </c>
       <c r="E144" s="80"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="90" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B145" s="99">
         <v>1</v>
@@ -4872,7 +4872,7 @@
       </c>
       <c r="E145" s="83"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" s="98" t="s">
         <v>60</v>
       </c>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="E146" s="83"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="98"/>
       <c r="B147" s="99"/>
       <c r="C147" s="112"/>
@@ -4898,7 +4898,7 @@
       </c>
       <c r="E147" s="83"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="111" t="s">
         <v>34</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="D148" s="97"/>
       <c r="E148" s="80"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="98" t="s">
         <v>327</v>
       </c>
@@ -4923,7 +4923,7 @@
       </c>
       <c r="E149" s="80"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="98" t="s">
         <v>334</v>
       </c>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="E150" s="80"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="98" t="s">
         <v>399</v>
       </c>
@@ -4953,9 +4953,9 @@
       </c>
       <c r="E151" s="80"/>
     </row>
-    <row r="152" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A152" s="98" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B152" s="97">
         <v>1</v>
@@ -4968,7 +4968,7 @@
       </c>
       <c r="E152" s="80"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" s="98" t="s">
         <v>323</v>
       </c>
@@ -4983,7 +4983,7 @@
       </c>
       <c r="E153" s="80"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="98" t="s">
         <v>324</v>
       </c>
@@ -4998,7 +4998,7 @@
       </c>
       <c r="E154" s="80"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="98" t="s">
         <v>336</v>
       </c>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="E155" s="80"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" s="98" t="s">
         <v>325</v>
       </c>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="E156" s="80"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" s="98" t="s">
         <v>332</v>
       </c>
@@ -5043,7 +5043,7 @@
       </c>
       <c r="E157" s="80"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="98" t="s">
         <v>333</v>
       </c>
@@ -5058,9 +5058,9 @@
       </c>
       <c r="E158" s="80"/>
     </row>
-    <row r="159" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A159" s="98" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B159" s="99">
         <v>1</v>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="E159" s="80"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="98" t="s">
         <v>354</v>
       </c>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="E160" s="80"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="114" t="s">
         <v>319</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="D161" s="110"/>
       <c r="E161" s="80"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="115" t="s">
         <v>392</v>
       </c>
@@ -5114,7 +5114,7 @@
       </c>
       <c r="E162" s="80"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="98" t="s">
         <v>320</v>
       </c>
@@ -5130,9 +5130,9 @@
       </c>
       <c r="E163" s="80"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="98" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B164" s="97">
         <v>1</v>
@@ -5146,7 +5146,7 @@
       </c>
       <c r="E164" s="80"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="98" t="s">
         <v>405</v>
       </c>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="E165" s="80"/>
     </row>
-    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="98" t="s">
         <v>330</v>
       </c>
@@ -5177,7 +5177,7 @@
       </c>
       <c r="E166" s="80"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="98" t="s">
         <v>338</v>
       </c>
@@ -5192,7 +5192,7 @@
       </c>
       <c r="E167" s="80"/>
     </row>
-    <row r="168" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A168" s="98" t="s">
         <v>339</v>
       </c>
@@ -5207,7 +5207,7 @@
       </c>
       <c r="E168" s="80"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="98"/>
       <c r="B169" s="92"/>
       <c r="C169" s="92"/>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="E169" s="80"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="111" t="s">
         <v>24</v>
       </c>
@@ -5226,7 +5226,7 @@
       <c r="D170" s="97"/>
       <c r="E170" s="80"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="98" t="s">
         <v>393</v>
       </c>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="E171" s="80"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="98" t="s">
         <v>392</v>
       </c>
@@ -5258,9 +5258,9 @@
       </c>
       <c r="E172" s="80"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" s="98" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B173" s="99">
         <v>1</v>
@@ -5273,7 +5273,7 @@
       </c>
       <c r="E173" s="80"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="98" t="s">
         <v>99</v>
       </c>
@@ -5289,9 +5289,9 @@
       </c>
       <c r="E174" s="80"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B175" s="99">
         <v>1</v>
@@ -5304,9 +5304,9 @@
       </c>
       <c r="E175" s="80"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B176" s="99">
         <v>1</v>
@@ -5319,9 +5319,9 @@
       </c>
       <c r="E176" s="80"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="98" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B177" s="99">
         <v>3</v>
@@ -5334,9 +5334,9 @@
       </c>
       <c r="E177" s="80"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="98" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B178" s="99">
         <v>1</v>
@@ -5349,9 +5349,9 @@
       </c>
       <c r="E178" s="80"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="117" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B179" s="99">
         <v>2</v>
@@ -5364,7 +5364,7 @@
       </c>
       <c r="E179" s="80"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="92"/>
       <c r="B180" s="91"/>
       <c r="C180" s="90"/>
@@ -5374,7 +5374,7 @@
       </c>
       <c r="E180" s="80"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="119" t="s">
         <v>25</v>
       </c>
@@ -5383,7 +5383,7 @@
       <c r="D181" s="97"/>
       <c r="E181" s="80"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="92" t="s">
         <v>347</v>
       </c>
@@ -5396,7 +5396,7 @@
       <c r="D182" s="110"/>
       <c r="E182" s="80"/>
     </row>
-    <row r="183" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A183" s="92" t="s">
         <v>201</v>
       </c>
@@ -5404,14 +5404,14 @@
         <v>50</v>
       </c>
       <c r="C183" s="92" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D183" s="110">
         <v>130</v>
       </c>
       <c r="E183" s="80"/>
     </row>
-    <row r="184" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A184" s="92" t="s">
         <v>202</v>
       </c>
@@ -5419,16 +5419,16 @@
         <v>50</v>
       </c>
       <c r="C184" s="92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D184" s="110">
         <v>130</v>
       </c>
       <c r="E184" s="80"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="92" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B185" s="97">
         <v>1</v>
@@ -5441,7 +5441,7 @@
       </c>
       <c r="E185" s="80"/>
     </row>
-    <row r="186" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="92"/>
       <c r="B186" s="97"/>
       <c r="C186" s="92"/>
@@ -5450,11 +5450,11 @@
         <v>260.69</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" ht="30.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A187" s="92"/>
       <c r="B187" s="97"/>
       <c r="C187" s="124" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D187" s="125">
         <f>D186+D180+D169+D147</f>
@@ -5462,16 +5462,16 @@
       </c>
       <c r="E187" s="84"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="88" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B188" s="92"/>
       <c r="C188" s="92"/>
       <c r="D188" s="97"/>
       <c r="E188" s="80"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="92" t="s">
         <v>353</v>
       </c>
@@ -5486,14 +5486,14 @@
       </c>
       <c r="E189" s="80"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="92"/>
       <c r="B190" s="97"/>
       <c r="C190" s="98"/>
       <c r="D190" s="120"/>
       <c r="E190" s="80"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="111" t="s">
         <v>29</v>
       </c>
@@ -5502,7 +5502,7 @@
       <c r="D191" s="97"/>
       <c r="E191" s="80"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="90" t="s">
         <v>396</v>
       </c>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="E192" s="85"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="90" t="s">
         <v>397</v>
       </c>
@@ -5532,7 +5532,7 @@
       </c>
       <c r="E193" s="85"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="90" t="s">
         <v>398</v>
       </c>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="E194" s="80"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="98" t="s">
         <v>114</v>
       </c>
@@ -5562,9 +5562,9 @@
       </c>
       <c r="E195" s="80"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="90" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B196" s="97">
         <v>1</v>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="E196" s="80"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="98" t="s">
         <v>121</v>
       </c>
@@ -5592,38 +5592,38 @@
       </c>
       <c r="E197" s="80"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="98" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B198" s="97">
         <v>2</v>
       </c>
       <c r="C198" s="92" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D198" s="110">
         <v>0.98</v>
       </c>
       <c r="E198" s="80"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="92"/>
       <c r="B199" s="92"/>
       <c r="C199" s="92"/>
       <c r="D199" s="92"/>
       <c r="E199" s="80"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="92" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B200" s="92"/>
       <c r="C200" s="92"/>
       <c r="D200" s="92"/>
       <c r="E200" s="80"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="92" t="s">
         <v>230</v>
       </c>
@@ -5632,43 +5632,43 @@
       <c r="D201" s="92"/>
       <c r="E201" s="80"/>
     </row>
-    <row r="202" spans="1:5" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="128" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B202" s="128"/>
       <c r="C202" s="128"/>
       <c r="D202" s="128"/>
       <c r="E202" s="80"/>
     </row>
-    <row r="203" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="128" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B203" s="128"/>
       <c r="C203" s="128"/>
       <c r="D203" s="128"/>
       <c r="E203" s="80"/>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="121" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B204" s="98"/>
       <c r="C204" s="98"/>
       <c r="D204" s="98"/>
       <c r="E204" s="80"/>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B205" s="99"/>
       <c r="C205" s="98"/>
       <c r="D205" s="122"/>
       <c r="E205" s="80"/>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="99" t="s">
         <v>368</v>
       </c>
@@ -5683,26 +5683,26 @@
       </c>
       <c r="E206" s="80"/>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="92" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B207" s="92"/>
       <c r="C207" s="92"/>
       <c r="D207" s="92"/>
       <c r="E207" s="80"/>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="86" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B208" s="86"/>
       <c r="C208" s="86"/>
       <c r="D208" s="86"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="78" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B209" s="78">
         <v>1</v>
@@ -5714,14 +5714,14 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="78" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="78" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -5751,14 +5751,14 @@
       <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="85.33203125" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="85.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
@@ -5781,7 +5781,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>166</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>221.04</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -5803,7 +5803,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>62.4</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -5862,7 +5862,7 @@
       </c>
       <c r="I8" s="16"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>142</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>32.68</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>184</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>5.86</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>185</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>4.87</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>186</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>129</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>5</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>28.873949579831933</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>137</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
         <v>182</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>3.78</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -5982,7 +5982,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>7.1344537815126055</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -6025,7 +6025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
@@ -6033,7 +6033,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>154</v>
       </c>
@@ -6041,7 +6041,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>183</v>
       </c>
@@ -6049,7 +6049,7 @@
       <c r="C23" s="4"/>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>170</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -6085,7 +6085,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>118</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>155</v>
       </c>
@@ -6136,7 +6136,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>187</v>
       </c>
@@ -6144,7 +6144,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -6152,7 +6152,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>174</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>175</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>176</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>5.41</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>177</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>178</v>
       </c>
@@ -6222,7 +6222,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>179</v>
       </c>
@@ -6237,7 +6237,7 @@
       </c>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
@@ -6245,7 +6245,7 @@
       <c r="C39" s="4"/>
       <c r="D39" s="8"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>88</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>56.21848739495799</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>181</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>86</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>67</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>68</v>
       </c>
@@ -6330,7 +6330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>164</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>87</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>2.9327731092436977</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>243</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>126.0420168067227</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>220</v>
       </c>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="E49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="29" t="s">
         <v>153</v>
       </c>
@@ -6406,7 +6406,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>156</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
@@ -6429,7 +6429,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="11"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>219</v>
       </c>
@@ -6443,7 +6443,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>225</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>90</v>
       </c>
@@ -6465,7 +6465,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="8"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>91</v>
       </c>
@@ -6480,7 +6480,7 @@
       </c>
       <c r="E56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>92</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>94</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>93</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>97</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>12</v>
       </c>
@@ -6544,7 +6544,7 @@
       <c r="C61" s="4"/>
       <c r="D61" s="11"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>13</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="31" t="s">
         <v>222</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="F63" s="34"/>
       <c r="G63" s="32"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="31" t="s">
         <v>224</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="F64" s="34"/>
       <c r="G64" s="32"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>50</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>224.0805</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>18.952500000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>22.365000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>190.512</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>29.431500000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>417.78449999999998</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>167.41200000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>37.905000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>18.952500000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>48.163499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>48.163499999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>60.144000000000005</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>34.503</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>102.59550000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>128</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>140</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -7005,12 +7005,12 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>106</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>107</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>95</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>108</v>
       </c>
@@ -7068,7 +7068,7 @@
         <v>25.48</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>54</v>
       </c>
@@ -7083,7 +7083,7 @@
         <v>15.08</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
         <v>227</v>
       </c>
@@ -7098,12 +7098,12 @@
       <c r="F90" s="35"/>
       <c r="G90" s="36"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>65</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="C92" s="4"/>
       <c r="D92" s="15"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>118</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="17" t="s">
         <v>160</v>
       </c>
@@ -7137,7 +7137,7 @@
       <c r="C94" s="4"/>
       <c r="D94" s="15"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>161</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>99</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>251</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>252</v>
       </c>
@@ -7194,7 +7194,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="27" t="s">
         <v>253</v>
       </c>
@@ -7209,13 +7209,13 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B100" s="20"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>254</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>167</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>30.235294117647058</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>53</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>2.61</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>99</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -7288,7 +7288,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>356</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="13" t="s">
         <v>313</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="13" t="s">
         <v>314</v>
       </c>
@@ -7330,9 +7330,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="72" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B109" s="14">
         <v>2</v>
@@ -7344,7 +7344,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
       <c r="C110" s="13"/>
@@ -7353,18 +7353,18 @@
         <v>52.559579831932773</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
       <c r="C111" s="13"/>
       <c r="D111" s="15"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>352</v>
       </c>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="D113" s="13"/>
     </row>
-    <row r="114" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>202</v>
       </c>
@@ -7408,7 +7408,7 @@
       </c>
       <c r="E115" s="129"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>205</v>
       </c>
@@ -7422,31 +7422,31 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C117" s="13"/>
       <c r="D117" s="17">
         <f>SUM(D113:D116)</f>
         <v>260.69</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
       <c r="D118" s="7"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
       <c r="D119" s="7"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>163</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>119</v>
       </c>
@@ -7466,13 +7466,13 @@
         <v>540</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
       <c r="C123" s="4"/>
       <c r="D123" s="15"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="C124" s="26" t="s">
         <v>165</v>
@@ -7482,7 +7482,7 @@
         <v>4008.8451260504207</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="D125" s="22">
         <f>D124*1.19</f>
@@ -7492,15 +7492,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
         <v>34</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>327</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>17.638655462184872</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>334</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="13" t="s">
         <v>399</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="13" t="s">
         <v>323</v>
       </c>
@@ -7571,7 +7571,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>324</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>336</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>325</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>332</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>6.55</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>333</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>354</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="38" t="s">
         <v>319</v>
       </c>
@@ -7676,7 +7676,7 @@
       <c r="C139" s="13"/>
       <c r="D139" s="21"/>
     </row>
-    <row r="140" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="71" t="s">
         <v>328</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>15.117647058823529</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="13" t="s">
         <v>320</v>
       </c>
@@ -7706,7 +7706,7 @@
         <v>3.151260504201681</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="13" t="s">
         <v>329</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>3.2521008403361349</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
         <v>344</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>1.596638655462185</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
         <v>330</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
         <v>338</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
         <v>337</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="13"/>
       <c r="B147" s="20"/>
       <c r="C147" s="39" t="s">
@@ -7789,7 +7789,7 @@
         <v>86.31630252100841</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="D148" s="22">
         <f>D147*1.19</f>
@@ -7799,12 +7799,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="D149" s="22"/>
       <c r="E149" s="18"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>400</v>
       </c>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="E150" s="18"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
         <v>401</v>
       </c>
@@ -7828,22 +7828,22 @@
       </c>
       <c r="E151" s="18"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="D152" s="22"/>
       <c r="E152" s="18"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="D153" s="22"/>
       <c r="E153" s="18"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="D154" s="22"/>
       <c r="E154" s="18"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>168</v>
       </c>
@@ -7853,32 +7853,32 @@
       <c r="D155" s="22"/>
       <c r="E155" s="18"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="D156" s="22"/>
       <c r="E156" s="18"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="D157" s="22"/>
       <c r="E157" s="18"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>69</v>
       </c>
@@ -7912,14 +7912,14 @@
       <selection activeCell="C116" sqref="C116:D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="112.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="20" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" customWidth="1"/>
+    <col min="1" max="1" width="112.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -7935,7 +7935,7 @@
       <c r="E1" s="43"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>138</v>
       </c>
@@ -7944,7 +7944,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="43"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>266</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>7.5966386554621845</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>267</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>10.436974789915965</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>268</v>
       </c>
@@ -8010,7 +8010,7 @@
         <v>6.8907563025210079</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>269</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>7.5966386554621845</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>270</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>6.9579831932773111</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>271</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>13.781512605042016</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>272</v>
       </c>
@@ -8098,7 +8098,7 @@
         <v>1.6134453781512605</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>273</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>1.3025210084033614</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>274</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>33.815126050420169</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
         <v>371</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>1.4957983193277311</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
         <v>275</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>4.7394957983193278</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
         <v>276</v>
       </c>
@@ -8208,7 +8208,7 @@
         <v>3.5966386554621854</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
         <v>277</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>1.0756302521008405</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
         <v>278</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>2.0840336134453783</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
         <v>279</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>11.731092436974791</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46" t="s">
         <v>349</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>18.302521008403364</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
         <v>280</v>
       </c>
@@ -8318,7 +8318,7 @@
         <v>2.8907563025210083</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
         <v>281</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>7.0588235294117654</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
         <v>282</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>5.8823529411764719</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
         <v>283</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>3.5294117647058827</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>373</v>
       </c>
@@ -8406,7 +8406,7 @@
         <v>1.0756302521008405</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
         <v>284</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>0.83193277310924374</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
         <v>285</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>1.3865546218487395</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
         <v>375</v>
       </c>
@@ -8472,7 +8472,7 @@
         <v>1.9327731092436975</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
         <v>374</v>
       </c>
@@ -8494,7 +8494,7 @@
         <v>1.0084033613445378</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
         <v>286</v>
       </c>
@@ -8509,7 +8509,7 @@
       </c>
       <c r="E28" s="43"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
         <v>372</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>1.277310924369748</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
         <v>287</v>
       </c>
@@ -8553,7 +8553,7 @@
         <v>3.5294117647058827</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
         <v>288</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>1.6134453781512605</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>289</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>1.8907563025210086</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
         <v>290</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
         <v>291</v>
       </c>
@@ -8641,7 +8641,7 @@
         <v>0.84033613445378152</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
         <v>292</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>14.521008403361346</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
         <v>293</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>1.0924369747899161</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
         <v>294</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>10.084033613445378</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>295</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>1.0756302521008405</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
         <v>296</v>
       </c>
@@ -8744,7 +8744,7 @@
       </c>
       <c r="E39" s="43"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
         <v>297</v>
       </c>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="E40" s="43"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
         <v>364</v>
       </c>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="E41" s="43"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
         <v>365</v>
       </c>
@@ -8789,7 +8789,7 @@
       </c>
       <c r="E42" s="43"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
         <v>298</v>
       </c>
@@ -8804,7 +8804,7 @@
       </c>
       <c r="E43" s="43"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>101</v>
       </c>
@@ -8813,7 +8813,7 @@
       <c r="D44" s="48"/>
       <c r="E44" s="43"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="47" t="s">
         <v>17</v>
       </c>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="E45" s="43"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="51" t="s">
         <v>253</v>
       </c>
@@ -8844,7 +8844,7 @@
       </c>
       <c r="E46" s="43"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>18</v>
       </c>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="E47" s="43"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="51" t="s">
         <v>237</v>
       </c>
@@ -8876,7 +8876,7 @@
       </c>
       <c r="E48" s="43"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
         <v>238</v>
       </c>
@@ -8893,7 +8893,7 @@
       <c r="E49" s="43"/>
       <c r="I49" s="16"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="47" t="s">
         <v>142</v>
       </c>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="E50" s="43"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>184</v>
       </c>
@@ -8923,7 +8923,7 @@
       </c>
       <c r="E51" s="43"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="47" t="s">
         <v>185</v>
       </c>
@@ -8938,7 +8938,7 @@
       </c>
       <c r="E52" s="43"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>186</v>
       </c>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="E53" s="43"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
         <v>129</v>
       </c>
@@ -8968,7 +8968,7 @@
       </c>
       <c r="E54" s="43"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
         <v>5</v>
       </c>
@@ -8983,7 +8983,7 @@
       </c>
       <c r="E55" s="43"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="47" t="s">
         <v>376</v>
       </c>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="E56" s="43"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="55" t="s">
         <v>240</v>
       </c>
@@ -9015,7 +9015,7 @@
       </c>
       <c r="E57" s="43"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
         <v>28</v>
       </c>
@@ -9024,7 +9024,7 @@
       <c r="D58" s="50"/>
       <c r="E58" s="43"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
         <v>239</v>
       </c>
@@ -9039,7 +9039,7 @@
       </c>
       <c r="E59" s="43"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>102</v>
       </c>
@@ -9055,7 +9055,7 @@
       </c>
       <c r="E60" s="43"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
         <v>53</v>
       </c>
@@ -9070,7 +9070,7 @@
       </c>
       <c r="E61" s="43"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
         <v>258</v>
       </c>
@@ -9085,7 +9085,7 @@
       </c>
       <c r="E62" s="43"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
         <v>257</v>
       </c>
@@ -9100,7 +9100,7 @@
       </c>
       <c r="E63" s="43"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>171</v>
       </c>
@@ -9116,7 +9116,7 @@
       </c>
       <c r="E64" s="43"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="44" t="s">
         <v>27</v>
       </c>
@@ -9125,7 +9125,7 @@
       <c r="D65" s="50"/>
       <c r="E65" s="43"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
         <v>118</v>
       </c>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="E66" s="43"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
         <v>258</v>
       </c>
@@ -9156,7 +9156,7 @@
       </c>
       <c r="E67" s="43"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
         <v>47</v>
       </c>
@@ -9171,7 +9171,7 @@
       </c>
       <c r="E68" s="43"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="47" t="s">
         <v>48</v>
       </c>
@@ -9186,7 +9186,7 @@
       </c>
       <c r="E69" s="43"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="44" t="s">
         <v>7</v>
       </c>
@@ -9195,7 +9195,7 @@
       <c r="D70" s="50"/>
       <c r="E70" s="43"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="47" t="s">
         <v>174</v>
       </c>
@@ -9210,7 +9210,7 @@
       </c>
       <c r="E71" s="43"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="47" t="s">
         <v>175</v>
       </c>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="E72" s="43"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="47" t="s">
         <v>176</v>
       </c>
@@ -9240,7 +9240,7 @@
       </c>
       <c r="E73" s="43"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
         <v>177</v>
       </c>
@@ -9255,7 +9255,7 @@
       </c>
       <c r="E74" s="43"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="47" t="s">
         <v>178</v>
       </c>
@@ -9270,7 +9270,7 @@
       </c>
       <c r="E75" s="43"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>241</v>
       </c>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="E76" s="50"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
         <v>42</v>
       </c>
@@ -9294,7 +9294,7 @@
       <c r="D77" s="50"/>
       <c r="E77" s="43"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>88</v>
       </c>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="E78" s="43"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="47" t="s">
         <v>181</v>
       </c>
@@ -9324,7 +9324,7 @@
       </c>
       <c r="E79" s="43"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="47" t="s">
         <v>86</v>
       </c>
@@ -9339,7 +9339,7 @@
       </c>
       <c r="E80" s="43"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="47" t="s">
         <v>11</v>
       </c>
@@ -9354,7 +9354,7 @@
       </c>
       <c r="E81" s="43"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="47" t="s">
         <v>242</v>
       </c>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="E82" s="43"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>300</v>
       </c>
@@ -9384,7 +9384,7 @@
       </c>
       <c r="E83" s="43"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="47" t="s">
         <v>87</v>
       </c>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="E84" s="43"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="56" t="s">
         <v>243</v>
       </c>
@@ -9415,7 +9415,7 @@
       </c>
       <c r="E85" s="43"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="56" t="s">
         <v>362</v>
       </c>
@@ -9431,7 +9431,7 @@
       </c>
       <c r="E86" s="43"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="56" t="s">
         <v>220</v>
       </c>
@@ -9446,7 +9446,7 @@
       </c>
       <c r="E87" s="47"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
         <v>244</v>
       </c>
@@ -9455,7 +9455,7 @@
       <c r="D88" s="50"/>
       <c r="E88" s="43"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="47" t="s">
         <v>91</v>
       </c>
@@ -9470,7 +9470,7 @@
       </c>
       <c r="E89" s="47"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="47" t="s">
         <v>92</v>
       </c>
@@ -9485,7 +9485,7 @@
       </c>
       <c r="E90" s="43"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="47" t="s">
         <v>94</v>
       </c>
@@ -9500,7 +9500,7 @@
       </c>
       <c r="E91" s="43"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="47" t="s">
         <v>93</v>
       </c>
@@ -9515,7 +9515,7 @@
       </c>
       <c r="E92" s="43"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="47" t="s">
         <v>357</v>
       </c>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="E93" s="43"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="47" t="s">
         <v>359</v>
       </c>
@@ -9545,7 +9545,7 @@
       </c>
       <c r="E94" s="43"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="47" t="s">
         <v>358</v>
       </c>
@@ -9560,7 +9560,7 @@
       </c>
       <c r="E95" s="43"/>
     </row>
-    <row r="96" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="53" t="s">
         <v>191</v>
       </c>
@@ -9575,7 +9575,7 @@
       </c>
       <c r="E96" s="43"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="s">
         <v>245</v>
       </c>
@@ -9584,7 +9584,7 @@
       <c r="D97" s="58"/>
       <c r="E97" s="43"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="59" t="s">
         <v>13</v>
       </c>
@@ -9599,7 +9599,7 @@
       </c>
       <c r="E98" s="43"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="43" t="s">
         <v>72</v>
       </c>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="E99" s="43"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="43" t="s">
         <v>73</v>
       </c>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="E100" s="43"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="43" t="s">
         <v>74</v>
       </c>
@@ -9644,7 +9644,7 @@
       </c>
       <c r="E101" s="43"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="43" t="s">
         <v>75</v>
       </c>
@@ -9659,7 +9659,7 @@
       </c>
       <c r="E102" s="43"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="43" t="s">
         <v>76</v>
       </c>
@@ -9674,7 +9674,7 @@
       </c>
       <c r="E103" s="43"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="43" t="s">
         <v>77</v>
       </c>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="E104" s="43"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="43" t="s">
         <v>78</v>
       </c>
@@ -9704,7 +9704,7 @@
       </c>
       <c r="E105" s="43"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="43" t="s">
         <v>79</v>
       </c>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="E106" s="43"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="43" t="s">
         <v>80</v>
       </c>
@@ -9734,7 +9734,7 @@
       </c>
       <c r="E107" s="43"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
         <v>81</v>
       </c>
@@ -9749,7 +9749,7 @@
       </c>
       <c r="E108" s="43"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="43" t="s">
         <v>82</v>
       </c>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="E109" s="43"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="43" t="s">
         <v>83</v>
       </c>
@@ -9779,7 +9779,7 @@
       </c>
       <c r="E110" s="43"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="43" t="s">
         <v>84</v>
       </c>
@@ -9794,7 +9794,7 @@
       </c>
       <c r="E111" s="43"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="43" t="s">
         <v>85</v>
       </c>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="E112" s="43"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="43" t="s">
         <v>261</v>
       </c>
@@ -9824,7 +9824,7 @@
       </c>
       <c r="E113" s="43"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="43" t="s">
         <v>128</v>
       </c>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="E114" s="43"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
         <v>43</v>
       </c>
@@ -9848,7 +9848,7 @@
       <c r="D115" s="43"/>
       <c r="E115" s="43"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="53" t="s">
         <v>246</v>
       </c>
@@ -9863,7 +9863,7 @@
       </c>
       <c r="E116" s="43"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="53" t="s">
         <v>247</v>
       </c>
@@ -9878,7 +9878,7 @@
       </c>
       <c r="E117" s="43"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="53" t="s">
         <v>95</v>
       </c>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="E118" s="43"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="53" t="s">
         <v>108</v>
       </c>
@@ -9910,7 +9910,7 @@
       </c>
       <c r="E119" s="43"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="53" t="s">
         <v>260</v>
       </c>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="E120" s="43"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="53" t="s">
         <v>54</v>
       </c>
@@ -9942,7 +9942,7 @@
       </c>
       <c r="E121" s="43"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="53" t="s">
         <v>248</v>
       </c>
@@ -9958,7 +9958,7 @@
       </c>
       <c r="E122" s="43"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="47" t="s">
         <v>118</v>
       </c>
@@ -9974,7 +9974,7 @@
       </c>
       <c r="E123" s="43"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="61" t="s">
         <v>160</v>
       </c>
@@ -9983,7 +9983,7 @@
       <c r="D124" s="54"/>
       <c r="E124" s="43"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="53" t="s">
         <v>259</v>
       </c>
@@ -9998,7 +9998,7 @@
       </c>
       <c r="E125" s="43"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="47" t="s">
         <v>219</v>
       </c>
@@ -10013,7 +10013,7 @@
       </c>
       <c r="E126" s="43"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="47" t="s">
         <v>225</v>
       </c>
@@ -10028,7 +10028,7 @@
       </c>
       <c r="E127" s="43"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="53" t="s">
         <v>99</v>
       </c>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="E128" s="43"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="53" t="s">
         <v>262</v>
       </c>
@@ -10059,7 +10059,7 @@
       </c>
       <c r="E129" s="43"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="43" t="s">
         <v>263</v>
       </c>
@@ -10075,7 +10075,7 @@
       </c>
       <c r="E130" s="43"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="61" t="s">
         <v>24</v>
       </c>
@@ -10084,7 +10084,7 @@
       <c r="D131" s="43"/>
       <c r="E131" s="43"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="53" t="s">
         <v>255</v>
       </c>
@@ -10100,7 +10100,7 @@
       </c>
       <c r="E132" s="43"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="53" t="s">
         <v>167</v>
       </c>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="E133" s="43"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="53" t="s">
         <v>53</v>
       </c>
@@ -10131,7 +10131,7 @@
       </c>
       <c r="E134" s="43"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="53" t="s">
         <v>99</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="E135" s="43"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="53" t="s">
         <v>350</v>
       </c>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="E136" s="43"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="13" t="s">
         <v>356</v>
       </c>
@@ -10176,7 +10176,7 @@
       </c>
       <c r="E137" s="43"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="53" t="s">
         <v>351</v>
       </c>
@@ -10191,7 +10191,7 @@
       </c>
       <c r="E138" s="43"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="53" t="s">
         <v>355</v>
       </c>
@@ -10207,9 +10207,9 @@
       </c>
       <c r="E139" s="43"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="74" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B140" s="52">
         <v>2</v>
@@ -10222,7 +10222,7 @@
       </c>
       <c r="E140" s="43"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="62" t="s">
         <v>25</v>
       </c>
@@ -10231,7 +10231,7 @@
       <c r="D141" s="43"/>
       <c r="E141" s="43"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>352</v>
       </c>
@@ -10244,7 +10244,7 @@
       <c r="D142" s="43"/>
       <c r="E142" s="43"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="43" t="s">
         <v>201</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="43" t="s">
         <v>202</v>
       </c>
@@ -10276,7 +10276,7 @@
       </c>
       <c r="E144" s="131"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="43" t="s">
         <v>265</v>
       </c>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="E145" s="43"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="61" t="s">
         <v>162</v>
       </c>
@@ -10300,7 +10300,7 @@
       <c r="D146" s="43"/>
       <c r="E146" s="43"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="53" t="s">
         <v>163</v>
       </c>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="E147" s="43"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="53" t="s">
         <v>119</v>
       </c>
@@ -10322,7 +10322,7 @@
       </c>
       <c r="E148" s="43"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="53"/>
       <c r="B149" s="60"/>
       <c r="C149" s="63" t="s">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="E149" s="43"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="53"/>
       <c r="B150" s="60"/>
       <c r="C150" s="43"/>
@@ -10346,7 +10346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="65" t="s">
         <v>26</v>
       </c>
@@ -10355,7 +10355,7 @@
       <c r="D151" s="43"/>
       <c r="E151" s="43"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="61" t="s">
         <v>34</v>
       </c>
@@ -10364,7 +10364,7 @@
       <c r="D152" s="43"/>
       <c r="E152" s="43"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="66" t="s">
         <v>345</v>
       </c>
@@ -10373,7 +10373,7 @@
       <c r="D153" s="43"/>
       <c r="E153" s="43"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="53" t="s">
         <v>327</v>
       </c>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="E154" s="43"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="53" t="s">
         <v>334</v>
       </c>
@@ -10404,7 +10404,7 @@
       </c>
       <c r="E155" s="43"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="53" t="s">
         <v>369</v>
       </c>
@@ -10419,7 +10419,7 @@
       </c>
       <c r="E156" s="43"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="53" t="s">
         <v>323</v>
       </c>
@@ -10434,7 +10434,7 @@
       </c>
       <c r="E157" s="43"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="53" t="s">
         <v>324</v>
       </c>
@@ -10449,7 +10449,7 @@
       </c>
       <c r="E158" s="43"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="53" t="s">
         <v>336</v>
       </c>
@@ -10464,7 +10464,7 @@
       </c>
       <c r="E159" s="43"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="53" t="s">
         <v>325</v>
       </c>
@@ -10479,7 +10479,7 @@
       </c>
       <c r="E160" s="43"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="53" t="s">
         <v>332</v>
       </c>
@@ -10494,7 +10494,7 @@
       </c>
       <c r="E161" s="43"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="53" t="s">
         <v>333</v>
       </c>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="E162" s="43"/>
     </row>
-    <row r="163" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" s="70" t="s">
         <v>363</v>
       </c>
@@ -10524,7 +10524,7 @@
       </c>
       <c r="E163" s="43"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="53" t="s">
         <v>370</v>
       </c>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="E164" s="43"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="66" t="s">
         <v>319</v>
       </c>
@@ -10549,7 +10549,7 @@
       <c r="D165" s="45"/>
       <c r="E165" s="43"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="53" t="s">
         <v>342</v>
       </c>
@@ -10565,7 +10565,7 @@
       </c>
       <c r="E166" s="43"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="53" t="s">
         <v>343</v>
       </c>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="E167" s="43"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="53" t="s">
         <v>329</v>
       </c>
@@ -10597,7 +10597,7 @@
       </c>
       <c r="E168" s="43"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="53" t="s">
         <v>344</v>
       </c>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="E169" s="43"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="53" t="s">
         <v>330</v>
       </c>
@@ -10628,7 +10628,7 @@
       </c>
       <c r="E170" s="43"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="53" t="s">
         <v>338</v>
       </c>
@@ -10643,7 +10643,7 @@
       </c>
       <c r="E171" s="43"/>
     </row>
-    <row r="172" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="53" t="s">
         <v>339</v>
       </c>
@@ -10658,7 +10658,7 @@
       </c>
       <c r="E172" s="43"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="66" t="s">
         <v>162</v>
       </c>
@@ -10667,7 +10667,7 @@
       <c r="D173" s="54"/>
       <c r="E173" s="43"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="53" t="s">
         <v>346</v>
       </c>
@@ -10678,7 +10678,7 @@
       </c>
       <c r="E174" s="43"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="53" t="s">
         <v>119</v>
       </c>
@@ -10689,7 +10689,7 @@
       </c>
       <c r="E175" s="43"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="53"/>
       <c r="B176" s="60"/>
       <c r="C176" s="67" t="s">
@@ -10703,7 +10703,7 @@
       <c r="F176" s="21"/>
       <c r="K176" s="37"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="47"/>
       <c r="B177" s="60"/>
       <c r="C177" s="43"/>
@@ -10715,7 +10715,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="53" t="s">
         <v>341</v>
       </c>
@@ -10724,7 +10724,7 @@
       <c r="D178" s="43"/>
       <c r="E178" s="43"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="53" t="s">
         <v>368</v>
       </c>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="E179" s="43"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="68"/>
     </row>
   </sheetData>
@@ -10775,13 +10775,13 @@
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10798,7 +10798,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>138</v>
       </c>
@@ -10806,7 +10806,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>139</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>101</v>
       </c>
@@ -10831,7 +10831,7 @@
       <c r="C4" s="4"/>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>50.82</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -10875,7 +10875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>211</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -10927,7 +10927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>28.873949579831933</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>309</v>
       </c>
@@ -10955,7 +10955,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>308</v>
       </c>
@@ -10969,7 +10969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -10983,7 +10983,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>140</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>141</v>
       </c>
@@ -11011,7 +11011,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -11019,7 +11019,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>239</v>
       </c>
@@ -11033,7 +11033,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>102</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>7.1344537815126055</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -11062,7 +11062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
@@ -11070,7 +11070,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>154</v>
       </c>
@@ -11078,7 +11078,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="8"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>310</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
@@ -11106,7 +11106,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>171</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>27</v>
       </c>
@@ -11128,7 +11128,7 @@
       <c r="C26" s="4"/>
       <c r="D26" s="8"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>118</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>48</v>
       </c>
@@ -11171,7 +11171,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>155</v>
       </c>
@@ -11179,7 +11179,7 @@
       <c r="C30" s="4"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>311</v>
       </c>
@@ -11187,7 +11187,7 @@
       <c r="C31" s="4"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>7</v>
       </c>
@@ -11195,7 +11195,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="8"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>174</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>175</v>
       </c>
@@ -11223,7 +11223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>176</v>
       </c>
@@ -11235,7 +11235,7 @@
       </c>
       <c r="D35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>177</v>
       </c>
@@ -11247,7 +11247,7 @@
       </c>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>178</v>
       </c>
@@ -11259,7 +11259,7 @@
       </c>
       <c r="D37" s="8"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>312</v>
       </c>
@@ -11273,12 +11273,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>301</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>56.21848739495799</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -11307,7 +11307,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -11321,7 +11321,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>67</v>
       </c>
@@ -11335,7 +11335,7 @@
         <v>53.12</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>300</v>
       </c>
@@ -11349,7 +11349,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>87</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>2.9327731092436977</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>243</v>
       </c>
@@ -11379,7 +11379,7 @@
         <v>126.0420168067227</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>220</v>
       </c>
@@ -11394,7 +11394,7 @@
       </c>
       <c r="E47" s="4"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>302</v>
       </c>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="E48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>89</v>
       </c>
@@ -11417,7 +11417,7 @@
       <c r="C49" s="4"/>
       <c r="D49" s="11"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>216</v>
       </c>
@@ -11431,7 +11431,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>229</v>
       </c>
@@ -11445,7 +11445,7 @@
         <v>5.49</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>90</v>
       </c>
@@ -11453,7 +11453,7 @@
       <c r="C52" s="4"/>
       <c r="D52" s="8"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>91</v>
       </c>
@@ -11468,7 +11468,7 @@
       </c>
       <c r="E53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>92</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>94</v>
       </c>
@@ -11496,7 +11496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>93</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>97</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>191</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>2.4300000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
@@ -11549,7 +11549,7 @@
       <c r="C59" s="4"/>
       <c r="D59" s="11"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>222</v>
       </c>
@@ -11564,7 +11564,7 @@
       <c r="F60" s="34"/>
       <c r="G60" s="32"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>305</v>
       </c>
@@ -11579,7 +11579,7 @@
       <c r="F61" s="34"/>
       <c r="G61" s="32"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>261</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>13</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>192</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
         <v>50</v>
       </c>
@@ -11635,7 +11635,7 @@
         <v>224.1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>72</v>
       </c>
@@ -11649,7 +11649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>190.5</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -11691,7 +11691,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>417.8</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>77</v>
       </c>
@@ -11719,7 +11719,7 @@
         <v>167.4</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>78</v>
       </c>
@@ -11733,7 +11733,7 @@
         <v>37.9</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>79</v>
       </c>
@@ -11747,7 +11747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>80</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -11775,7 +11775,7 @@
         <v>48.2</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -11789,7 +11789,7 @@
         <v>60.1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>83</v>
       </c>
@@ -11803,7 +11803,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>84</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>32.86</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>85</v>
       </c>
@@ -11831,12 +11831,12 @@
         <v>97.7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
         <v>106</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
         <v>107</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
         <v>95</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>13.28</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
         <v>108</v>
       </c>
@@ -11894,7 +11894,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
         <v>264</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="13" t="s">
         <v>231</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="13" t="s">
         <v>303</v>
       </c>
@@ -11939,7 +11939,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="36"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
         <v>193</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>23.529411764705884</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
         <v>65</v>
       </c>
@@ -11962,7 +11962,7 @@
       <c r="C89" s="4"/>
       <c r="D89" s="15"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>232</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>2.56</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="s">
         <v>160</v>
       </c>
@@ -11985,7 +11985,7 @@
       <c r="C91" s="4"/>
       <c r="D91" s="15"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="13" t="s">
         <v>189</v>
       </c>
@@ -12006,7 +12006,7 @@
         <v>672.26890756302521</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
         <v>207</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="13" t="s">
         <v>208</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>2.06</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="13" t="s">
         <v>209</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="13" t="s">
         <v>206</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
         <v>99</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="13" t="s">
         <v>197</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>5.98</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="13" t="s">
         <v>198</v>
       </c>
@@ -12109,7 +12109,7 @@
         <v>20.100000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>214</v>
       </c>
@@ -12123,12 +12123,12 @@
         <v>13.35</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>49</v>
       </c>
@@ -12143,7 +12143,7 @@
         <v>58.655462184873947</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>31</v>
       </c>
@@ -12157,7 +12157,7 @@
         <v>29.33</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>32</v>
       </c>
@@ -12172,7 +12172,7 @@
       </c>
       <c r="E104" s="21"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>60</v>
       </c>
@@ -12191,7 +12191,7 @@
         <v>147.55512605042014</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="13" t="s">
         <v>119</v>
       </c>
@@ -12199,11 +12199,11 @@
         <v>540</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="C107" s="4"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="D108" s="22">
         <f>SUM(D3:D106)</f>
@@ -12219,23 +12219,23 @@
         <v>1717.44</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="D109" s="21">
         <f>D108*1.19</f>
         <v>4024.9732999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="D110" s="21"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>212</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>213</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>114</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>112</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>173</v>
       </c>
@@ -12317,7 +12317,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>121</v>
       </c>
@@ -12331,20 +12331,20 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="13"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="13" t="s">
         <v>55</v>
       </c>
@@ -12359,7 +12359,7 @@
         <v>17.638655462184872</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="13" t="s">
         <v>56</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>1.5042016806722691</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="13" t="s">
         <v>57</v>
       </c>
@@ -12393,7 +12393,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="13" t="s">
         <v>123</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="13" t="s">
         <v>124</v>
       </c>
@@ -12429,7 +12429,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="13" t="s">
         <v>122</v>
       </c>
@@ -12443,7 +12443,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="13" t="s">
         <v>125</v>
       </c>
@@ -12457,7 +12457,7 @@
         <v>3.95</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="13" t="s">
         <v>127</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="13" t="s">
         <v>59</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>9.6638655462184886</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="13" t="s">
         <v>58</v>
       </c>
@@ -12501,19 +12501,19 @@
         <v>9.5630252100840352</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="D131" s="22">
         <f>SUM(D121:D130)</f>
         <v>57.892016806722694</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="13" t="s">
         <v>39</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>4.72</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="13" t="s">
         <v>41</v>
       </c>
@@ -12543,7 +12543,7 @@
         <v>30.235294117647058</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="13" t="s">
         <v>53</v>
       </c>
@@ -12557,7 +12557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="13" t="s">
         <v>99</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>6.7142857142857144</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="13" t="s">
         <v>195</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="13" t="s">
         <v>234</v>
       </c>
@@ -12611,18 +12611,18 @@
         <v>51.639579831932771</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="13"/>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
       <c r="D140" s="15"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>36</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>201</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>202</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>205</v>
       </c>
@@ -12684,136 +12684,136 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D146" s="18">
         <f>SUM(D142:D145)</f>
         <v>274.89</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>230</v>
       </c>
